--- a/Testc.xlsx
+++ b/Testc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haripemireddy\QATraining\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D0E11B-2B31-46A6-99B1-BFEF1975BBAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E8672D-4E20-4823-9368-DC2CD5E73772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1434" windowWidth="16266" windowHeight="10818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="195">
   <si>
     <t>S.No</t>
   </si>
@@ -653,6 +653,32 @@
   </si>
   <si>
     <t>Id must highlighted as a hyperlink</t>
+  </si>
+  <si>
+    <t>To verify the country has Department</t>
+  </si>
+  <si>
+    <t>1.User is already in Locations 
+country name header table    
+2.id,street address,postal code,city,state or province</t>
+  </si>
+  <si>
+    <t>1.click on id</t>
+  </si>
+  <si>
+    <t>1.Page with Departments at postal
+ code,city name header displays</t>
+  </si>
+  <si>
+    <t>1.Click on id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page with Departments at postal code,
+city name header should display with id,department name. </t>
+  </si>
+  <si>
+    <t>Page with Departments at postal code,
+city name header should display with "no Departments".</t>
   </si>
 </sst>
 </file>
@@ -774,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +907,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -890,48 +925,53 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -941,35 +981,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,10 +1351,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,13 +1389,13 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1371,9 +1406,9 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="4" t="s">
@@ -1382,9 +1417,9 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -1402,13 +1437,13 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1419,9 +1454,9 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="4" t="s">
@@ -1430,9 +1465,9 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="4" t="s">
@@ -1441,9 +1476,9 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="3" t="s">
@@ -1452,9 +1487,9 @@
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -1472,13 +1507,13 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1489,9 +1524,9 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="4" t="s">
@@ -1500,9 +1535,9 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4" t="s">
@@ -1511,9 +1546,9 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -1534,13 +1569,13 @@
       <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I22" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1551,9 +1586,9 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="4" t="s">
@@ -1562,9 +1597,9 @@
       <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="4" t="s">
@@ -1573,9 +1608,9 @@
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -1593,13 +1628,13 @@
       <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1610,9 +1645,9 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="4" t="s">
@@ -1621,9 +1656,9 @@
       <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="4" t="s">
@@ -1632,9 +1667,9 @@
       <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -1652,13 +1687,13 @@
       <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1669,9 +1704,9 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="4" t="s">
@@ -1680,9 +1715,9 @@
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
     </row>
     <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="4" t="s">
@@ -1691,9 +1726,9 @@
       <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -1711,13 +1746,13 @@
       <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="40" t="s">
+      <c r="I40" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1728,9 +1763,9 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="4" t="s">
@@ -1739,9 +1774,9 @@
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="4" t="s">
@@ -1750,9 +1785,9 @@
       <c r="F43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -1770,13 +1805,13 @@
       <c r="F46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="39" t="s">
+      <c r="G46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1787,9 +1822,9 @@
       <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="40"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="4" t="s">
@@ -1798,9 +1833,9 @@
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="40"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
     </row>
     <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="4" t="s">
@@ -1809,9 +1844,9 @@
       <c r="F49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
     </row>
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
@@ -1832,13 +1867,13 @@
       <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G52" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="40" t="s">
+      <c r="I52" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1849,9 +1884,9 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="40"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="4" t="s">
@@ -1860,9 +1895,9 @@
       <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="40"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="4" t="s">
@@ -1871,9 +1906,9 @@
       <c r="F55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="40"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
@@ -1891,13 +1926,13 @@
       <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="40" t="s">
+      <c r="I58" s="43" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1908,9 +1943,9 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="40"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="43"/>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="4" t="s">
@@ -1919,9 +1954,9 @@
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="40"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="43"/>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="4" t="s">
@@ -1930,30 +1965,18 @@
       <c r="F61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="40"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
@@ -1961,12 +1984,24 @@
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1975,11 +2010,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C574D-0BB6-4981-A71F-7914F08050FB}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2008,10 +2043,10 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2049,13 +2084,13 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="57" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2064,40 +2099,40 @@
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="46"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="9"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="16" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2115,13 +2150,13 @@
       <c r="A8" s="17">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="66" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -2130,40 +2165,40 @@
       <c r="F8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A9" s="20"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="18" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="52"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="20"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="18" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="52"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -2214,16 +2249,16 @@
       <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="51">
+      <c r="A14" s="61">
         <v>4</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="54" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -2232,70 +2267,70 @@
       <c r="F14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="58"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A15" s="54"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="52"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="59"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="54"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="20" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A17" s="54"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="18" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="55"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2315,16 +2350,16 @@
       <c r="N19" s="16"/>
     </row>
     <row r="20" spans="1:14" ht="52.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="51">
+      <c r="A20" s="61">
         <v>5</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="54" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="27" t="s">
@@ -2333,61 +2368,61 @@
       <c r="F20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="54" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="54"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A22" s="54"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="19" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:14" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="54"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:14" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="54"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="27" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="11"/>
@@ -2406,16 +2441,16 @@
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="52">
+      <c r="A26" s="60">
         <v>6</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="60" t="s">
         <v>137</v>
       </c>
       <c r="E26" s="30" t="s">
@@ -2424,61 +2459,61 @@
       <c r="F26" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="57" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="32" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="50"/>
+      <c r="G27" s="57"/>
     </row>
     <row r="28" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="31" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="50"/>
+      <c r="G28" s="57"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="32" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="50"/>
+      <c r="G29" s="57"/>
     </row>
     <row r="30" spans="1:14" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="27" t="s">
         <v>138</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="11"/>
@@ -2497,16 +2532,16 @@
       <c r="N31" s="16"/>
     </row>
     <row r="32" spans="1:14" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="45">
+      <c r="A32" s="54">
         <v>7</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="49" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="18" t="s">
@@ -2515,61 +2550,61 @@
       <c r="F32" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="57" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="57"/>
     </row>
     <row r="34" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="26" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="50"/>
+      <c r="G34" s="57"/>
     </row>
     <row r="35" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="50"/>
+      <c r="G35" s="57"/>
     </row>
     <row r="36" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="27" t="s">
         <v>108</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="50"/>
+      <c r="G36" s="57"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="11"/>
@@ -2588,63 +2623,63 @@
       <c r="N37" s="16"/>
     </row>
     <row r="38" spans="1:14" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="45">
+      <c r="A38" s="54">
         <v>8</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="49" t="s">
         <v>103</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="57" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="27"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="50"/>
+      <c r="G39" s="57"/>
     </row>
     <row r="40" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="26"/>
       <c r="F40" s="19"/>
-      <c r="G40" s="50"/>
+      <c r="G40" s="57"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="27"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="50"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="27" t="s">
         <v>109</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="50"/>
+      <c r="G42" s="57"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
@@ -2663,63 +2698,63 @@
       <c r="N43" s="16"/>
     </row>
     <row r="44" spans="1:14" ht="15.9" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="45">
+      <c r="A44" s="54">
         <v>9</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="49" t="s">
         <v>103</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="26"/>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="57" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="46"/>
       <c r="E45" s="27"/>
       <c r="F45" s="26"/>
-      <c r="G45" s="50"/>
+      <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="26"/>
       <c r="F46" s="19"/>
-      <c r="G46" s="50"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="27"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="50"/>
+      <c r="G47" s="57"/>
     </row>
     <row r="48" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="27" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="11"/>
@@ -2738,16 +2773,16 @@
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="45">
+      <c r="A50" s="54">
         <v>10</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="49" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="18" t="s">
@@ -2756,61 +2791,61 @@
       <c r="F50" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="50"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="26" t="s">
         <v>93</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="50"/>
+      <c r="G52" s="57"/>
     </row>
     <row r="53" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="50"/>
+      <c r="G53" s="57"/>
     </row>
     <row r="54" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="G54" s="50"/>
+      <c r="G54" s="57"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="11"/>
@@ -2832,13 +2867,13 @@
       <c r="A56">
         <v>11</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>117</v>
       </c>
       <c r="E56" s="18" t="s">
@@ -2847,57 +2882,57 @@
       <c r="F56" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="65" t="s">
+      <c r="G56" s="58" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="66"/>
+      <c r="G57" s="59"/>
     </row>
     <row r="58" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="26" t="s">
         <v>93</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="66"/>
+      <c r="G58" s="59"/>
     </row>
     <row r="59" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="27" t="s">
         <v>87</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="66"/>
+      <c r="G59" s="59"/>
     </row>
     <row r="60" spans="1:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="27" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="66"/>
+      <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="11"/>
@@ -2916,16 +2951,16 @@
       <c r="N61" s="16"/>
     </row>
     <row r="62" spans="1:14" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="42">
+      <c r="A62" s="47">
         <v>12</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="54" t="s">
         <v>124</v>
       </c>
       <c r="E62" s="18" t="s">
@@ -2939,10 +2974,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="46"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="55"/>
       <c r="E63" s="27" t="s">
         <v>69</v>
       </c>
@@ -2951,10 +2986,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="46"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="28" t="s">
         <v>125</v>
       </c>
@@ -2979,16 +3014,16 @@
       <c r="N65" s="16"/>
     </row>
     <row r="66" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="49">
+      <c r="A66" s="73">
         <v>13</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="54" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -2997,48 +3032,48 @@
       <c r="F66" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="47" t="s">
+      <c r="G66" s="49" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
       <c r="E67" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F67" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="48"/>
+      <c r="G67" s="74"/>
     </row>
     <row r="68" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
       <c r="E68" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="48"/>
+      <c r="G68" s="74"/>
     </row>
     <row r="69" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
       <c r="E69" s="28" t="s">
         <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="48"/>
+      <c r="G69" s="74"/>
     </row>
     <row r="70" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="11"/>
@@ -3057,16 +3092,16 @@
       <c r="N70" s="16"/>
     </row>
     <row r="71" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="42">
+      <c r="A71" s="47">
         <v>14</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="42" t="s">
+      <c r="C71" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="54" t="s">
         <v>124</v>
       </c>
       <c r="E71" s="18" t="s">
@@ -3077,10 +3112,10 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="46"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="55"/>
       <c r="E72" s="27" t="s">
         <v>69</v>
       </c>
@@ -3092,10 +3127,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="43"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="46"/>
+      <c r="A73" s="48"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="55"/>
       <c r="E73" s="28" t="s">
         <v>125</v>
       </c>
@@ -3104,10 +3139,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="44"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="46"/>
       <c r="E74" s="28" t="s">
         <v>135</v>
       </c>
@@ -3171,16 +3206,16 @@
       <c r="N77" s="16"/>
     </row>
     <row r="78" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="42">
+      <c r="A78" s="47">
         <v>16</v>
       </c>
-      <c r="B78" s="42" t="s">
+      <c r="B78" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="C78" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="45" t="s">
+      <c r="D78" s="54" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="18" t="s">
@@ -3189,42 +3224,42 @@
       <c r="F78" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="47" t="s">
+      <c r="G78" s="49" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="46"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="55"/>
       <c r="E79" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="43"/>
+      <c r="G79" s="48"/>
     </row>
     <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="46"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="55"/>
       <c r="E80" s="34" t="s">
         <v>152</v>
       </c>
       <c r="F80" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="43"/>
+      <c r="G80" s="48"/>
     </row>
     <row r="81" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
-      <c r="G81" s="43"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="46"/>
+      <c r="G81" s="48"/>
     </row>
     <row r="82" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="11"/>
@@ -3243,16 +3278,16 @@
       <c r="N82" s="16"/>
     </row>
     <row r="83" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="42">
+      <c r="A83" s="47">
         <v>17</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="54" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="18" t="s">
@@ -3261,42 +3296,42 @@
       <c r="F83" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="47" t="s">
+      <c r="G83" s="49" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="46"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="55"/>
       <c r="E84" s="27" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="48"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="46"/>
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="55"/>
       <c r="E85" s="34" t="s">
         <v>149</v>
       </c>
       <c r="F85" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="48"/>
     </row>
     <row r="86" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="44"/>
-      <c r="G86" s="43"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="46"/>
+      <c r="G86" s="48"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="11"/>
@@ -3471,45 +3506,45 @@
       <c r="N95" s="16"/>
     </row>
     <row r="96" spans="1:14" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="42">
+      <c r="A96" s="47">
         <v>22</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D96" s="71" t="s">
+      <c r="D96" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="F96" s="69" t="s">
+      <c r="F96" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="G96" s="67" t="s">
+      <c r="G96" s="45" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="68"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="50"/>
     </row>
     <row r="98" spans="1:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="68"/>
+      <c r="A98" s="48"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="50"/>
     </row>
     <row r="99" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="11"/>
@@ -3528,38 +3563,38 @@
       <c r="N99" s="16"/>
     </row>
     <row r="100" spans="1:14" ht="40.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="42">
+      <c r="A100" s="47">
         <v>23</v>
       </c>
-      <c r="B100" s="42" t="s">
+      <c r="B100" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="47" t="s">
+      <c r="E100" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="67" t="s">
+      <c r="F100" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="G100" s="67" t="s">
+      <c r="G100" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="43"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43" t="s">
+      <c r="A101" s="48"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
     </row>
     <row r="102" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="11"/>
@@ -3616,13 +3651,144 @@
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="1:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105">
+    <row r="105" spans="1:14" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A105" s="39">
         <v>25</v>
+      </c>
+      <c r="B105" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+    </row>
+    <row r="107" spans="1:14" ht="57.9" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="39">
+        <v>26</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="F107" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="G107" s="40" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="A83:A86"/>
     <mergeCell ref="F100:F101"/>
     <mergeCell ref="G100:G101"/>
     <mergeCell ref="B96:B98"/>
@@ -3637,80 +3803,6 @@
     <mergeCell ref="E96:E98"/>
     <mergeCell ref="D96:D98"/>
     <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B71:B74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testc.xlsx
+++ b/Testc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haripemireddy\QATraining\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E8672D-4E20-4823-9368-DC2CD5E73772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A529537-EA94-4146-8BD5-BC34A9180E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1434" windowWidth="16266" windowHeight="10818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2013,8 +2013,8 @@
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Testc.xlsx
+++ b/Testc.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haripemireddy\QATraining\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A529537-EA94-4146-8BD5-BC34A9180E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5762176A-A342-40CC-BD9D-4B4CF43F8B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8778" yWindow="210" windowWidth="16266" windowHeight="10818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$N$107</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="201">
   <si>
     <t>S.No</t>
   </si>
@@ -679,6 +682,27 @@
   <si>
     <t>Page with Departments at postal code,
 city name header should display with "no Departments".</t>
+  </si>
+  <si>
+    <t>To verify the Remember me check box is selectable</t>
+  </si>
+  <si>
+    <t>Fuctional</t>
+  </si>
+  <si>
+    <t>1.URL of the application       
+2.Valid user name and valid
+ password</t>
+  </si>
+  <si>
+    <t>3. Select Remember me check box</t>
+  </si>
+  <si>
+    <t>1.Remember me check box is
+ selected</t>
+  </si>
+  <si>
+    <t>1.Remember me check box should select</t>
   </si>
 </sst>
 </file>
@@ -738,15 +762,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -796,11 +826,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,10 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,6 +967,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -955,7 +1025,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1004,6 +1074,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1351,10 +1427,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1389,13 +1465,13 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1406,9 +1482,9 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="4" t="s">
@@ -1417,9 +1493,9 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -1437,13 +1513,13 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1454,9 +1530,9 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="4" t="s">
@@ -1465,9 +1541,9 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="4" t="s">
@@ -1476,9 +1552,9 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="3" t="s">
@@ -1487,9 +1563,9 @@
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -1507,13 +1583,13 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1524,9 +1600,9 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="4" t="s">
@@ -1535,9 +1611,9 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4" t="s">
@@ -1546,9 +1622,9 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -1569,13 +1645,13 @@
       <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1586,9 +1662,9 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="4" t="s">
@@ -1597,9 +1673,9 @@
       <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="4" t="s">
@@ -1608,9 +1684,9 @@
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -1628,13 +1704,13 @@
       <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1645,9 +1721,9 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="4" t="s">
@@ -1656,9 +1732,9 @@
       <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="4" t="s">
@@ -1667,9 +1743,9 @@
       <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -1687,13 +1763,13 @@
       <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="42" t="s">
+      <c r="G34" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="42" t="s">
+      <c r="H34" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="43" t="s">
+      <c r="I34" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1704,9 +1780,9 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="43"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="4" t="s">
@@ -1715,9 +1791,9 @@
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="43"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="4" t="s">
@@ -1726,9 +1802,9 @@
       <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -1746,13 +1822,13 @@
       <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="42" t="s">
+      <c r="G40" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1763,9 +1839,9 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="43"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="4" t="s">
@@ -1774,9 +1850,9 @@
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="43"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="4" t="s">
@@ -1785,9 +1861,9 @@
       <c r="F43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="43"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -1805,13 +1881,13 @@
       <c r="F46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1822,9 +1898,9 @@
       <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="43"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="49"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="4" t="s">
@@ -1833,9 +1909,9 @@
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="43"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="49"/>
     </row>
     <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="4" t="s">
@@ -1844,9 +1920,9 @@
       <c r="F49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="43"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="49"/>
     </row>
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
@@ -1867,13 +1943,13 @@
       <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="H52" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1884,9 +1960,9 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="43"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="49"/>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="4" t="s">
@@ -1895,9 +1971,9 @@
       <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="43"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="49"/>
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="4" t="s">
@@ -1906,9 +1982,9 @@
       <c r="F55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="49"/>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
@@ -1926,13 +2002,13 @@
       <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="42" t="s">
+      <c r="H58" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="49" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1943,9 +2019,9 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="43"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="49"/>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="4" t="s">
@@ -1954,9 +2030,9 @@
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="43"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="49"/>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="4" t="s">
@@ -1965,9 +2041,9 @@
       <c r="F61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="43"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2010,11 +2086,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C574D-0BB6-4981-A71F-7914F08050FB}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2030,943 +2106,946 @@
     <col min="9" max="9" width="16.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A1" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="62"/>
+      <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="14"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="46"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="52"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="52"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="19"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A9" s="20"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="18" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="19"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="20"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="18" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="47.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="24"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="61">
+      <c r="A14" s="67">
         <v>4</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="20"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="18" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="20"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="70"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="20" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="20"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A17" s="70"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="18" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="20"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="71"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="18" t="s">
+      <c r="A18" s="77"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="20"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="52.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="61">
+      <c r="A20" s="67">
         <v>5</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="60" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="70"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="27" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="60"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A22" s="70"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="19" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="60"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:14" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="70"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="27" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="60"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="1:14" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="70"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="27" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="66"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="60">
+      <c r="A26" s="66">
         <v>6</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="57" t="s">
+      <c r="G26" s="63" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="32" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="57"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="31" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="57"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="32" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="57"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:14" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="27" t="s">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="57"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="54">
+      <c r="A32" s="60">
         <v>7</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="57" t="s">
+      <c r="G32" s="63" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="27" t="s">
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="26" t="s">
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="57"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="27" t="s">
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="57"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="27" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="57"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="54">
+      <c r="A38" s="60">
         <v>8</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="57" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="63" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="57"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="63"/>
     </row>
     <row r="40" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="57"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="57"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="63"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="27" t="s">
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="57"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" ht="15.9" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="54">
+      <c r="A44" s="60">
         <v>9</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="57" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="63" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="57"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="57"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="57"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="27" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="57"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="54">
+      <c r="A50" s="60">
         <v>10</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="63" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="27" t="s">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F51" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="57"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="26" t="s">
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="19" t="s">
+      <c r="F52" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="57"/>
+      <c r="G52" s="63"/>
     </row>
     <row r="53" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="27" t="s">
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="57"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="27" t="s">
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G54" s="57"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
     </row>
     <row r="56" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
       <c r="A56">
         <v>11</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="58" t="s">
+      <c r="G56" s="64" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="27" t="s">
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F57" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="59"/>
+      <c r="G57" s="65"/>
     </row>
     <row r="58" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="26" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="19" t="s">
+      <c r="F58" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="59"/>
+      <c r="G58" s="65"/>
     </row>
     <row r="59" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="27" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="59"/>
+      <c r="G59" s="65"/>
     </row>
     <row r="60" spans="1:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="27" t="s">
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F60" s="26" t="s">
+      <c r="F60" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="59"/>
+      <c r="G60" s="65"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="47">
+      <c r="A62" s="53">
         <v>12</v>
       </c>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="54" t="s">
+      <c r="D62" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="26" t="s">
         <v>68</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -2974,152 +3053,152 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="48"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="27" t="s">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F63" s="26" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="28" t="s">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
     </row>
     <row r="66" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="73">
+      <c r="A66" s="79">
         <v>13</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="49" t="s">
+      <c r="G66" s="55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="27" t="s">
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="74"/>
+      <c r="G67" s="80"/>
     </row>
     <row r="68" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="28" t="s">
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="19" t="s">
+      <c r="F68" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="74"/>
+      <c r="G68" s="80"/>
     </row>
     <row r="69" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="28" t="s">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="26" t="s">
         <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="74"/>
+      <c r="G69" s="80"/>
     </row>
     <row r="70" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="47">
+      <c r="A71" s="53">
         <v>14</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B71" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="48"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="27" t="s">
+      <c r="A72" s="54"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -3127,23 +3206,23 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="48"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="28" t="s">
+      <c r="A73" s="54"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="F73" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="46"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="46"/>
-      <c r="E74" s="28" t="s">
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="26" t="s">
         <v>135</v>
       </c>
       <c r="F74" t="s">
@@ -3151,20 +3230,20 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A76">
@@ -3190,164 +3269,164 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="47">
+      <c r="A78" s="53">
         <v>16</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="54" t="s">
+      <c r="D78" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="49" t="s">
+      <c r="G78" s="55" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="27" t="s">
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="48"/>
+      <c r="G79" s="54"/>
     </row>
     <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="48"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="34" t="s">
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F80" s="35" t="s">
+      <c r="F80" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="48"/>
+      <c r="G80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="46"/>
-      <c r="G81" s="48"/>
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="52"/>
+      <c r="G81" s="54"/>
     </row>
     <row r="82" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="47">
+      <c r="A83" s="53">
         <v>17</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="49" t="s">
+      <c r="G83" s="55" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="48"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="27" t="s">
+      <c r="A84" s="54"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="29" t="s">
+      <c r="F84" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="48"/>
+      <c r="G84" s="54"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="48"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="34" t="s">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="F85" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="48"/>
+      <c r="G85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="48"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="46"/>
-      <c r="G86" s="48"/>
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="52"/>
+      <c r="G86" s="54"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:14" ht="48.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A88">
@@ -3359,7 +3438,7 @@
       <c r="C88" t="s">
         <v>33</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="17" t="s">
         <v>155</v>
       </c>
       <c r="E88" t="s">
@@ -3373,20 +3452,20 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="18.600000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
     </row>
     <row r="90" spans="1:14" ht="49.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A90">
@@ -3398,7 +3477,7 @@
       <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="17" t="s">
         <v>155</v>
       </c>
       <c r="E90" t="s">
@@ -3412,20 +3491,20 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
     </row>
     <row r="92" spans="1:14" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A92">
@@ -3451,20 +3530,20 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
     </row>
     <row r="94" spans="1:14" ht="53.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A94">
@@ -3490,231 +3569,301 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="47">
+      <c r="A96" s="53">
         <v>22</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="47" t="s">
+      <c r="C96" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D96" s="53" t="s">
+      <c r="D96" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="49" t="s">
+      <c r="E96" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="F96" s="51" t="s">
+      <c r="F96" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="G96" s="45" t="s">
+      <c r="G96" s="51" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="48"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="50"/>
+      <c r="A97" s="54"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="56"/>
     </row>
     <row r="98" spans="1:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="48"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="50"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="56"/>
     </row>
     <row r="99" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
     </row>
     <row r="100" spans="1:14" ht="40.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="47">
+      <c r="A100" s="53">
         <v>23</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="C100" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="45" t="s">
+      <c r="F100" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="G100" s="45" t="s">
+      <c r="G100" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="48"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48" t="s">
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="48"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
     </row>
     <row r="102" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="16"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
     </row>
     <row r="103" spans="1:14" ht="48.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A103" s="37">
+      <c r="A103" s="35">
         <v>24</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="38" t="s">
+      <c r="D103" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F103" s="37" t="s">
+      <c r="F103" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="35" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
     </row>
     <row r="105" spans="1:14" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A105" s="39">
+      <c r="A105" s="37">
         <v>25</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D105" s="41" t="s">
+      <c r="D105" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="F105" s="40" t="s">
+      <c r="F105" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G105" s="40" t="s">
+      <c r="G105" s="38" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-    </row>
-    <row r="107" spans="1:14" ht="57.9" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="39">
+      <c r="A106" s="9"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+    </row>
+    <row r="107" spans="1:14" ht="58.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A107" s="37">
         <v>26</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="39" t="s">
+      <c r="C107" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D107" s="41" t="s">
+      <c r="D107" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="E107" s="39" t="s">
+      <c r="E107" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="F107" s="40" t="s">
+      <c r="F107" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G107" s="40" t="s">
+      <c r="G107" s="38" t="s">
         <v>194</v>
       </c>
     </row>
+    <row r="108" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A108" s="9"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+    </row>
+    <row r="109" spans="1:14" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="53">
+        <v>27</v>
+      </c>
+      <c r="B109" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C109" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F109" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="G109" s="55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="52"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="54"/>
+      <c r="G110" s="54"/>
+    </row>
+    <row r="111" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="52"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
+  <autoFilter ref="A1:N107" xr:uid="{71596E00-9D51-4451-9442-BC138B6C8C5D}">
+    <filterColumn colId="4" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="94">
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="A109:A111"/>
     <mergeCell ref="A71:A74"/>
     <mergeCell ref="D71:D74"/>
     <mergeCell ref="G66:G69"/>

--- a/Testc.xlsx
+++ b/Testc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haripemireddy\QATraining\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5762176A-A342-40CC-BD9D-4B4CF43F8B5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1242A8-6DCD-4DD9-B2F3-A89F84F444A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8778" yWindow="210" windowWidth="16266" windowHeight="10818" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="237">
   <si>
     <t>S.No</t>
   </si>
@@ -698,11 +698,124 @@
     <t>3. Select Remember me check box</t>
   </si>
   <si>
-    <t>1.Remember me check box is
- selected</t>
-  </si>
-  <si>
-    <t>1.Remember me check box should select</t>
+    <t>4.click on sign in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Remember me check box is
+ selected                                            </t>
+  </si>
+  <si>
+    <t>2.sign in button is clicked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Remember me check box should select                                                         </t>
+  </si>
+  <si>
+    <t>5.close the browser</t>
+  </si>
+  <si>
+    <t>3.Browser is closed</t>
+  </si>
+  <si>
+    <t>2.page should be open with "welcome to Autotools" message</t>
+  </si>
+  <si>
+    <t>3.browser should be closed</t>
+  </si>
+  <si>
+    <t>6.Open the browser</t>
+  </si>
+  <si>
+    <t>4.User is sign in automatically</t>
+  </si>
+  <si>
+    <t>4.User should be sign in automatically</t>
+  </si>
+  <si>
+    <t>1.URL of the application</t>
+  </si>
+  <si>
+    <t>To verify the menu bar color</t>
+  </si>
+  <si>
+    <t>1. Open browser and enter the url and 
+hit submit.</t>
+  </si>
+  <si>
+    <t>1.Menu bar color is black</t>
+  </si>
+  <si>
+    <t>Menu bar color should be black</t>
+  </si>
+  <si>
+    <t>To verify the Login menu</t>
+  </si>
+  <si>
+    <t>1. Open browser and enter the url and
+ hit submit.</t>
+  </si>
+  <si>
+    <t>2.place the cursor on Login</t>
+  </si>
+  <si>
+    <t>1.Login menu is hovered</t>
+  </si>
+  <si>
+    <t>Login menu Should be hovered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify  the login menu </t>
+  </si>
+  <si>
+    <t>2.Click on login menu</t>
+  </si>
+  <si>
+    <t>stay in login page</t>
+  </si>
+  <si>
+    <t>User should stay in Login page</t>
+  </si>
+  <si>
+    <t>To verify the Email label and input box</t>
+  </si>
+  <si>
+    <t>1.User is already in login page</t>
+  </si>
+  <si>
+    <t>1.Email input displays hint word"Email"</t>
+  </si>
+  <si>
+    <t>1.Email input box displays hint 
+word"Email"</t>
+  </si>
+  <si>
+    <t>Email input should display hint word
+"Email"</t>
+  </si>
+  <si>
+    <t>1.user is already in login page</t>
+  </si>
+  <si>
+    <t>1.Click on Label</t>
+  </si>
+  <si>
+    <t>1.Email input box is highlighted</t>
+  </si>
+  <si>
+    <t>1.Email input box should be highlighted</t>
+  </si>
+  <si>
+    <t>To verify the Password label and input box</t>
+  </si>
+  <si>
+    <t>1.Observe password input box</t>
+  </si>
+  <si>
+    <t>1Password input box displays hint word"Password".</t>
+  </si>
+  <si>
+    <t>Password input box should display hint
+word"Password"</t>
   </si>
 </sst>
 </file>
@@ -856,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -985,6 +1098,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -995,10 +1127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1007,17 +1135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1025,23 +1144,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1051,37 +1178,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,10 +1560,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1465,13 +1598,13 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1482,9 +1615,9 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="4" t="s">
@@ -1493,9 +1626,9 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -1513,13 +1646,13 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1530,9 +1663,9 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="4" t="s">
@@ -1541,9 +1674,9 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="4" t="s">
@@ -1552,9 +1685,9 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="3" t="s">
@@ -1563,9 +1696,9 @@
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -1583,13 +1716,13 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="49" t="s">
+      <c r="I16" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1600,9 +1733,9 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="4" t="s">
@@ -1611,9 +1744,9 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4" t="s">
@@ -1622,9 +1755,9 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -1645,13 +1778,13 @@
       <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="49" t="s">
+      <c r="I22" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1662,9 +1795,9 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="4" t="s">
@@ -1673,9 +1806,9 @@
       <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="4" t="s">
@@ -1684,9 +1817,9 @@
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -1704,13 +1837,13 @@
       <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1721,9 +1854,9 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="4" t="s">
@@ -1732,9 +1865,9 @@
       <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="4" t="s">
@@ -1743,9 +1876,9 @@
       <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -1763,13 +1896,13 @@
       <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="H34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="49" t="s">
+      <c r="I34" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1780,9 +1913,9 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="4" t="s">
@@ -1791,9 +1924,9 @@
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="4" t="s">
@@ -1802,9 +1935,9 @@
       <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -1822,13 +1955,13 @@
       <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="48" t="s">
+      <c r="G40" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="48" t="s">
+      <c r="H40" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="49" t="s">
+      <c r="I40" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1839,9 +1972,9 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="4" t="s">
@@ -1850,9 +1983,9 @@
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="4" t="s">
@@ -1861,9 +1994,9 @@
       <c r="F43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -1881,13 +2014,13 @@
       <c r="F46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="48" t="s">
+      <c r="H46" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1898,9 +2031,9 @@
       <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="4" t="s">
@@ -1909,9 +2042,9 @@
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="49"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
     </row>
     <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="4" t="s">
@@ -1920,9 +2053,9 @@
       <c r="F49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
     </row>
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
@@ -1943,13 +2076,13 @@
       <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G52" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H52" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="49" t="s">
+      <c r="I52" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1960,9 +2093,9 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="56"/>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="4" t="s">
@@ -1971,9 +2104,9 @@
       <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="56"/>
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="4" t="s">
@@ -1982,9 +2115,9 @@
       <c r="F55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="56"/>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
@@ -2002,13 +2135,13 @@
       <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="48" t="s">
+      <c r="G58" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="H58" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="49" t="s">
+      <c r="I58" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2019,9 +2152,9 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="48"/>
-      <c r="H59" s="48"/>
-      <c r="I59" s="49"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="56"/>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="4" t="s">
@@ -2030,9 +2163,9 @@
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="56"/>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="4" t="s">
@@ -2041,18 +2174,30 @@
       <c r="F61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
@@ -2060,24 +2205,12 @@
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2086,11 +2219,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C574D-0BB6-4981-A71F-7914F08050FB}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2119,10 +2252,10 @@
       <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="62"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
@@ -2163,13 +2296,13 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="66" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2178,40 +2311,40 @@
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="52"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="7"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="52"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2229,13 +2362,13 @@
       <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="73" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -2244,40 +2377,40 @@
       <c r="F8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="66"/>
+      <c r="H8" s="68"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A9" s="18"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="71"/>
-      <c r="H9" s="66"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="68"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="18"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="66"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="68"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -2331,13 +2464,13 @@
       <c r="A14" s="67">
         <v>4</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="62" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -2346,70 +2479,70 @@
       <c r="F14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A15" s="76"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="66"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="69"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="76"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="66"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="18" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="69"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A17" s="76"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="66"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="66"/>
-      <c r="H17" s="69"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="77"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="66"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="69"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2432,13 +2565,13 @@
       <c r="A20" s="67">
         <v>5</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -2447,61 +2580,61 @@
       <c r="F20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="60" t="s">
+      <c r="G20" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="76"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="66"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="66"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A22" s="76"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="66"/>
+      <c r="A22" s="70"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="17" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="66"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:14" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="76"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="66"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="66"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:14" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="76"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="66"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="25" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="66"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="9"/>
@@ -2520,16 +2653,16 @@
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="66">
+      <c r="A26" s="68">
         <v>6</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="68" t="s">
         <v>137</v>
       </c>
       <c r="E26" s="28" t="s">
@@ -2538,61 +2671,61 @@
       <c r="F26" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="G26" s="66" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="30" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="63"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="54"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="63"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="54"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="30" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:14" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="54"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="25" t="s">
         <v>138</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="9"/>
@@ -2611,16 +2744,16 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="60">
+      <c r="A32" s="62">
         <v>7</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="62" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="60" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="16" t="s">
@@ -2629,61 +2762,61 @@
       <c r="F32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="66" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="63"/>
+      <c r="G33" s="66"/>
     </row>
     <row r="34" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="66"/>
     </row>
     <row r="35" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="63"/>
+      <c r="G35" s="66"/>
     </row>
     <row r="36" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="52"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="25" t="s">
         <v>108</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="63"/>
+      <c r="G36" s="66"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="9"/>
@@ -2702,63 +2835,63 @@
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="60">
+      <c r="A38" s="62">
         <v>8</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="62" t="s">
         <v>107</v>
       </c>
       <c r="C38" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="60" t="s">
         <v>103</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="66" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="63"/>
+      <c r="G39" s="66"/>
     </row>
     <row r="40" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="52"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="24"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="63"/>
+      <c r="G40" s="66"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="25"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="63"/>
+      <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="52"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="63"/>
+      <c r="G42" s="66"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="9"/>
@@ -2777,63 +2910,63 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" ht="15.9" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="60">
+      <c r="A44" s="62">
         <v>9</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C44" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="60" t="s">
         <v>103</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="63" t="s">
+      <c r="G44" s="66" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="25"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="63"/>
+      <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="24"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="63"/>
+      <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="25"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="25" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="63"/>
+      <c r="G48" s="66"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="9"/>
@@ -2852,16 +2985,16 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="60">
+      <c r="A50" s="62">
         <v>10</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="60" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="16" t="s">
@@ -2870,61 +3003,61 @@
       <c r="F50" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="66" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="52"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="63"/>
+      <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="52"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="63"/>
+      <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="64"/>
       <c r="E53" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="63"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="52"/>
+      <c r="A54" s="64"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="25" t="s">
         <v>113</v>
       </c>
       <c r="F54" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="G54" s="63"/>
+      <c r="G54" s="66"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="9"/>
@@ -2946,13 +3079,13 @@
       <c r="A56">
         <v>11</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="60" t="s">
         <v>117</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -2961,57 +3094,57 @@
       <c r="F56" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="64" t="s">
+      <c r="G56" s="81" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="65"/>
+      <c r="G57" s="82"/>
     </row>
     <row r="58" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="65"/>
+      <c r="G58" s="82"/>
     </row>
     <row r="59" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="65"/>
+      <c r="G59" s="82"/>
     </row>
     <row r="60" spans="1:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="25" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="65"/>
+      <c r="G60" s="82"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="9"/>
@@ -3030,16 +3163,16 @@
       <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="53">
+      <c r="A62" s="58">
         <v>12</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="62" t="s">
         <v>124</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -3053,10 +3186,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="61"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="25" t="s">
         <v>69</v>
       </c>
@@ -3065,10 +3198,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="61"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="26" t="s">
         <v>125</v>
       </c>
@@ -3093,16 +3226,16 @@
       <c r="N65" s="14"/>
     </row>
     <row r="66" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="79">
+      <c r="A66" s="65">
         <v>13</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="62" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -3111,48 +3244,48 @@
       <c r="F66" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="55" t="s">
+      <c r="G66" s="60" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
       <c r="E67" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="80"/>
+      <c r="G67" s="61"/>
     </row>
     <row r="68" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
       <c r="E68" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="80"/>
+      <c r="G68" s="61"/>
     </row>
     <row r="69" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
       <c r="E69" s="26" t="s">
         <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="80"/>
+      <c r="G69" s="61"/>
     </row>
     <row r="70" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="9"/>
@@ -3171,16 +3304,16 @@
       <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="53">
+      <c r="A71" s="58">
         <v>14</v>
       </c>
-      <c r="B71" s="60" t="s">
+      <c r="B71" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="60" t="s">
+      <c r="D71" s="62" t="s">
         <v>124</v>
       </c>
       <c r="E71" s="16" t="s">
@@ -3191,10 +3324,10 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="54"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="61"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="63"/>
       <c r="E72" s="25" t="s">
         <v>69</v>
       </c>
@@ -3206,10 +3339,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="54"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="61"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="63"/>
       <c r="E73" s="26" t="s">
         <v>125</v>
       </c>
@@ -3218,10 +3351,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="52"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="64"/>
       <c r="E74" s="26" t="s">
         <v>135</v>
       </c>
@@ -3285,16 +3418,16 @@
       <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="53">
+      <c r="A78" s="58">
         <v>16</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="60" t="s">
+      <c r="D78" s="62" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="16" t="s">
@@ -3303,42 +3436,42 @@
       <c r="F78" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="55" t="s">
+      <c r="G78" s="60" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="61"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="63"/>
       <c r="E79" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="54"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="61"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="32" t="s">
         <v>152</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="54"/>
+      <c r="G80" s="59"/>
     </row>
     <row r="81" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="52"/>
-      <c r="G81" s="54"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="64"/>
+      <c r="G81" s="59"/>
     </row>
     <row r="82" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="9"/>
@@ -3357,16 +3490,16 @@
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="53">
+      <c r="A83" s="58">
         <v>17</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="53" t="s">
+      <c r="C83" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="60" t="s">
+      <c r="D83" s="62" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -3375,42 +3508,42 @@
       <c r="F83" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="60" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="61"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="63"/>
       <c r="E84" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="54"/>
+      <c r="G84" s="59"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="61"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="63"/>
       <c r="E85" s="32" t="s">
         <v>149</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="54"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="52"/>
-      <c r="G86" s="54"/>
+      <c r="A86" s="59"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="64"/>
+      <c r="G86" s="59"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="9"/>
@@ -3585,45 +3718,45 @@
       <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="53">
+      <c r="A96" s="58">
         <v>22</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="55" t="s">
+      <c r="E96" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="F96" s="57" t="s">
+      <c r="F96" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="G96" s="51" t="s">
+      <c r="G96" s="83" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="56"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="84"/>
     </row>
     <row r="98" spans="1:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="54"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="56"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="64"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="84"/>
     </row>
     <row r="99" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="9"/>
@@ -3642,38 +3775,38 @@
       <c r="N99" s="14"/>
     </row>
     <row r="100" spans="1:14" ht="40.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="53">
+      <c r="A100" s="58">
         <v>23</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="53" t="s">
+      <c r="C100" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="55" t="s">
+      <c r="D100" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="55" t="s">
+      <c r="E100" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="51" t="s">
+      <c r="F100" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="G100" s="51" t="s">
+      <c r="G100" s="83" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54" t="s">
+      <c r="A101" s="59"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="54"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
     </row>
     <row r="102" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="9"/>
@@ -3808,70 +3941,451 @@
       <c r="M108" s="14"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="1:14" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="53">
+    <row r="109" spans="1:14" ht="55.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="58">
         <v>27</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="53" t="s">
+      <c r="C109" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="60" t="s">
         <v>197</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="55" t="s">
+      <c r="F109" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="G109" s="60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="72"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="61"/>
+      <c r="G110" s="59"/>
+    </row>
+    <row r="111" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="72"/>
+      <c r="B111" s="72"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F111" s="61"/>
+      <c r="G111" s="59"/>
+    </row>
+    <row r="112" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="72"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G109" s="55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="52"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
-    </row>
-    <row r="111" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="52"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-    </row>
+      <c r="F112" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="G112" s="50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="72"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F113" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="G113" s="49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A114" s="72"/>
+      <c r="B114" s="72"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F114" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+    </row>
+    <row r="116" spans="1:14" ht="48.3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A116" s="54">
+        <v>28</v>
+      </c>
+      <c r="B116" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F116" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="G116" s="49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="14"/>
+      <c r="M117" s="14"/>
+      <c r="N117" s="14"/>
+    </row>
+    <row r="118" spans="1:14" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="58">
+        <v>29</v>
+      </c>
+      <c r="B118" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="F118" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G118" s="88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A119" s="59"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="59"/>
+      <c r="E119" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="F119" s="59"/>
+      <c r="G119" s="89"/>
+    </row>
+    <row r="120" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A120" s="9"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+    </row>
+    <row r="121" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="58">
+        <v>30</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="G121" s="58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A122" s="59"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
+    </row>
+    <row r="123" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A123" s="9"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="14"/>
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124" spans="1:14" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>31</v>
+      </c>
+      <c r="B124" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="G124" s="83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125" s="59"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="84"/>
+    </row>
+    <row r="128" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="129" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A129" s="9"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="14"/>
+      <c r="N129" s="14"/>
+    </row>
+    <row r="130" spans="1:14" ht="23.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A130">
+        <v>32</v>
+      </c>
+      <c r="B130" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>229</v>
+      </c>
+      <c r="E130" t="s">
+        <v>230</v>
+      </c>
+      <c r="F130" t="s">
+        <v>231</v>
+      </c>
+      <c r="G130" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A131" s="9"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:14" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="58">
+        <v>33</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C132" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E132" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F132" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="G132" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A133" s="59"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="90"/>
+      <c r="G133" s="66"/>
+    </row>
+    <row r="134" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A134" s="9"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+    </row>
+    <row r="135" spans="1:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <autoFilter ref="A1:N107" xr:uid="{71596E00-9D51-4451-9442-BC138B6C8C5D}">
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <mergeCells count="94">
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B71:B74"/>
+  <mergeCells count="116">
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="G26:G30"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="A62:A64"/>
@@ -3888,53 +4402,30 @@
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="D44:D48"/>
     <mergeCell ref="C44:C48"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="G38:G42"/>
     <mergeCell ref="D78:D81"/>
     <mergeCell ref="C78:C81"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="G78:G81"/>
     <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
     <mergeCell ref="B83:B86"/>
     <mergeCell ref="C83:C86"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="B121:B122"/>
     <mergeCell ref="D83:D86"/>
     <mergeCell ref="G83:G86"/>
     <mergeCell ref="A83:A86"/>
@@ -3949,9 +4440,6 @@
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="G96:G98"/>
     <mergeCell ref="F96:F98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="C96:C98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testc.xlsx
+++ b/Testc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haripemireddy\QATraining\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1242A8-6DCD-4DD9-B2F3-A89F84F444A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9DA766-8A8D-482B-A9F9-58C0B966C349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="247">
   <si>
     <t>S.No</t>
   </si>
@@ -816,6 +816,38 @@
   <si>
     <t>Password input box should display hint
 word"Password"</t>
+  </si>
+  <si>
+    <t>To verify the remember me check box is deselect</t>
+  </si>
+  <si>
+    <t>2.Valid email and password</t>
+  </si>
+  <si>
+    <t>1.new page open with "welcome 
+to Auto tools" message</t>
+  </si>
+  <si>
+    <t>1.Click on Sign in</t>
+  </si>
+  <si>
+    <t>2.Close the browser</t>
+  </si>
+  <si>
+    <t>2.Browser is closed</t>
+  </si>
+  <si>
+    <t>3.open the browser</t>
+  </si>
+  <si>
+    <t>4.enter the Url</t>
+  </si>
+  <si>
+    <t>3.Login page is opened</t>
+  </si>
+  <si>
+    <t>Browser should not remember Email 
+and password</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,6 +1150,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1133,88 +1169,88 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1560,10 +1596,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="57"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1598,13 +1634,13 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1615,9 +1651,9 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="4" t="s">
@@ -1626,9 +1662,9 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -1646,13 +1682,13 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1663,9 +1699,9 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="4" t="s">
@@ -1674,9 +1710,9 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="4" t="s">
@@ -1685,9 +1721,9 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="3" t="s">
@@ -1696,9 +1732,9 @@
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -1716,13 +1752,13 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="56" t="s">
+      <c r="H16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1733,9 +1769,9 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="4" t="s">
@@ -1744,9 +1780,9 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4" t="s">
@@ -1755,9 +1791,9 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -1778,13 +1814,13 @@
       <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="56" t="s">
+      <c r="H22" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="56" t="s">
+      <c r="I22" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1795,9 +1831,9 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="4" t="s">
@@ -1806,9 +1842,9 @@
       <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="4" t="s">
@@ -1817,9 +1853,9 @@
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -1837,13 +1873,13 @@
       <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1854,9 +1890,9 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="56"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="4" t="s">
@@ -1865,9 +1901,9 @@
       <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="4" t="s">
@@ -1876,9 +1912,9 @@
       <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -1896,13 +1932,13 @@
       <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="55" t="s">
+      <c r="H34" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1913,9 +1949,9 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="4" t="s">
@@ -1924,9 +1960,9 @@
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="58"/>
     </row>
     <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="4" t="s">
@@ -1935,9 +1971,9 @@
       <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -1955,13 +1991,13 @@
       <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="55" t="s">
+      <c r="H40" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="56" t="s">
+      <c r="I40" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1972,9 +2008,9 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="56"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="4" t="s">
@@ -1983,9 +2019,9 @@
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="4" t="s">
@@ -1994,9 +2030,9 @@
       <c r="F43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="56"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -2014,13 +2050,13 @@
       <c r="F46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="56" t="s">
+      <c r="I46" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2031,9 +2067,9 @@
       <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="58"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="4" t="s">
@@ -2042,9 +2078,9 @@
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="58"/>
     </row>
     <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="4" t="s">
@@ -2053,9 +2089,9 @@
       <c r="F49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
@@ -2076,13 +2112,13 @@
       <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="56" t="s">
+      <c r="I52" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2093,9 +2129,9 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="56"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="58"/>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="4" t="s">
@@ -2104,9 +2140,9 @@
       <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="4" t="s">
@@ -2115,9 +2151,9 @@
       <c r="F55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="58"/>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
@@ -2135,13 +2171,13 @@
       <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="55" t="s">
+      <c r="H58" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="56" t="s">
+      <c r="I58" s="58" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2152,9 +2188,9 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="56"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="4" t="s">
@@ -2163,9 +2199,9 @@
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="56"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="58"/>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="4" t="s">
@@ -2174,30 +2210,18 @@
       <c r="F61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="56"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="I46:I49"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="I58:I61"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
@@ -2205,12 +2229,24 @@
     <mergeCell ref="G9:G13"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="H52:H55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="I46:I49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2219,11 +2255,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C574D-0BB6-4981-A71F-7914F08050FB}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134:XFD134"/>
+      <pane ySplit="2" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2252,10 +2288,10 @@
       <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="80"/>
+      <c r="F1" s="74"/>
       <c r="G1" s="45" t="s">
         <v>5</v>
       </c>
@@ -2314,7 +2350,7 @@
       <c r="G4" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -2329,7 +2365,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="66"/>
-      <c r="H5" s="64"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2344,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="66"/>
-      <c r="H6" s="64"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2362,13 +2398,13 @@
       <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="82" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -2377,40 +2413,40 @@
       <c r="F8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="68"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
       <c r="A9" s="18"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="78"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="18"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="16" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -2461,16 +2497,16 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="67">
+      <c r="A14" s="79">
         <v>4</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="77" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -2479,70 +2515,70 @@
       <c r="F14" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="74"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A15" s="70"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="68"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="75"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="70"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="18" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="75"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A17" s="70"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="78"/>
       <c r="E17" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="75"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="71"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="75"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -2562,16 +2598,16 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="52.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="67">
+      <c r="A20" s="79">
         <v>5</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="77" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -2580,61 +2616,61 @@
       <c r="F20" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="77" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="70"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A22" s="70"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="17" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:14" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="70"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:14" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="70"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="25" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="9"/>
@@ -2653,16 +2689,16 @@
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="68">
+      <c r="A26" s="78">
         <v>6</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="78" t="s">
         <v>137</v>
       </c>
       <c r="E26" s="28" t="s">
@@ -2676,10 +2712,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="59"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="30" t="s">
         <v>69</v>
       </c>
@@ -2689,10 +2725,10 @@
       <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="59"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
@@ -2702,10 +2738,10 @@
       <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="30" t="s">
         <v>87</v>
       </c>
@@ -2715,10 +2751,10 @@
       <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:14" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="25" t="s">
         <v>138</v>
       </c>
@@ -2744,16 +2780,16 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="62">
+      <c r="A32" s="77">
         <v>7</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="65" t="s">
         <v>103</v>
       </c>
       <c r="E32" s="16" t="s">
@@ -2767,10 +2803,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="64"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="67"/>
       <c r="E33" s="25" t="s">
         <v>69</v>
       </c>
@@ -2780,10 +2816,10 @@
       <c r="G33" s="66"/>
     </row>
     <row r="34" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="64"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="24" t="s">
         <v>93</v>
       </c>
@@ -2793,10 +2829,10 @@
       <c r="G34" s="66"/>
     </row>
     <row r="35" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="64"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="67"/>
       <c r="E35" s="25" t="s">
         <v>87</v>
       </c>
@@ -2806,10 +2842,10 @@
       <c r="G35" s="66"/>
     </row>
     <row r="36" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="64"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="25" t="s">
         <v>108</v>
       </c>
@@ -2835,16 +2871,16 @@
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="62">
+      <c r="A38" s="77">
         <v>8</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="65" t="s">
         <v>103</v>
       </c>
       <c r="E38" s="16"/>
@@ -2854,37 +2890,37 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="64"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24"/>
       <c r="G39" s="66"/>
     </row>
     <row r="40" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="64"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="24"/>
       <c r="F40" s="17"/>
       <c r="G40" s="66"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="64"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="25"/>
       <c r="F41" s="24"/>
       <c r="G41" s="66"/>
     </row>
     <row r="42" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="64"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="67"/>
       <c r="E42" s="25" t="s">
         <v>109</v>
       </c>
@@ -2910,16 +2946,16 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" ht="15.9" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="62">
+      <c r="A44" s="77">
         <v>9</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="65" t="s">
         <v>103</v>
       </c>
       <c r="E44" s="16"/>
@@ -2929,37 +2965,37 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="64"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="25"/>
       <c r="F45" s="24"/>
       <c r="G45" s="66"/>
     </row>
     <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="64"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="67"/>
       <c r="E46" s="24"/>
       <c r="F46" s="17"/>
       <c r="G46" s="66"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="64"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="67"/>
       <c r="E47" s="25"/>
       <c r="F47" s="24"/>
       <c r="G47" s="66"/>
     </row>
     <row r="48" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="64"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="25" t="s">
         <v>112</v>
       </c>
@@ -2985,16 +3021,16 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="62">
+      <c r="A50" s="77">
         <v>10</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="65" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="16" t="s">
@@ -3008,10 +3044,10 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="64"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="25" t="s">
         <v>69</v>
       </c>
@@ -3021,10 +3057,10 @@
       <c r="G51" s="66"/>
     </row>
     <row r="52" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="64"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="24" t="s">
         <v>93</v>
       </c>
@@ -3034,10 +3070,10 @@
       <c r="G52" s="66"/>
     </row>
     <row r="53" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="64"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="67"/>
       <c r="E53" s="25" t="s">
         <v>87</v>
       </c>
@@ -3047,10 +3083,10 @@
       <c r="G53" s="66"/>
     </row>
     <row r="54" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="64"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="64"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="67"/>
       <c r="E54" s="25" t="s">
         <v>113</v>
       </c>
@@ -3079,13 +3115,13 @@
       <c r="A56">
         <v>11</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="60" t="s">
+      <c r="D56" s="65" t="s">
         <v>117</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -3094,57 +3130,57 @@
       <c r="F56" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="81" t="s">
+      <c r="G56" s="75" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="82"/>
+      <c r="G57" s="76"/>
     </row>
     <row r="58" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G58" s="82"/>
+      <c r="G58" s="76"/>
     </row>
     <row r="59" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="25" t="s">
         <v>87</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="82"/>
+      <c r="G59" s="76"/>
     </row>
     <row r="60" spans="1:14" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="25" t="s">
         <v>120</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="82"/>
+      <c r="G60" s="76"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="9"/>
@@ -3163,16 +3199,16 @@
       <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="58">
+      <c r="A62" s="60">
         <v>12</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="77" t="s">
         <v>124</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -3186,10 +3222,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="63"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="88"/>
       <c r="E63" s="25" t="s">
         <v>69</v>
       </c>
@@ -3198,10 +3234,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="63"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="88"/>
       <c r="E64" s="26" t="s">
         <v>125</v>
       </c>
@@ -3226,16 +3262,16 @@
       <c r="N65" s="14"/>
     </row>
     <row r="66" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="65">
+      <c r="A66" s="91">
         <v>13</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="62" t="s">
+      <c r="D66" s="77" t="s">
         <v>131</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -3244,48 +3280,48 @@
       <c r="F66" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G66" s="60" t="s">
+      <c r="G66" s="65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
       <c r="E67" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="G67" s="61"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A68" s="64"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
       <c r="E68" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="G68" s="61"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
       <c r="E69" s="26" t="s">
         <v>132</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="61"/>
+      <c r="G69" s="71"/>
     </row>
     <row r="70" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="9"/>
@@ -3304,16 +3340,16 @@
       <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="58">
+      <c r="A71" s="60">
         <v>14</v>
       </c>
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D71" s="62" t="s">
+      <c r="D71" s="77" t="s">
         <v>124</v>
       </c>
       <c r="E71" s="16" t="s">
@@ -3324,10 +3360,10 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="59"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="63"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="88"/>
       <c r="E72" s="25" t="s">
         <v>69</v>
       </c>
@@ -3339,10 +3375,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="59"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="63"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="88"/>
       <c r="E73" s="26" t="s">
         <v>125</v>
       </c>
@@ -3351,10 +3387,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="64"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="64"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="67"/>
       <c r="E74" s="26" t="s">
         <v>135</v>
       </c>
@@ -3418,16 +3454,16 @@
       <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="58">
+      <c r="A78" s="60">
         <v>16</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="62" t="s">
+      <c r="D78" s="77" t="s">
         <v>124</v>
       </c>
       <c r="E78" s="16" t="s">
@@ -3436,42 +3472,42 @@
       <c r="F78" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="60" t="s">
+      <c r="G78" s="65" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="59"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="63"/>
+      <c r="A79" s="61"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="88"/>
       <c r="E79" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F79" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="59"/>
+      <c r="G79" s="61"/>
     </row>
     <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="59"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="63"/>
+      <c r="A80" s="61"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="88"/>
       <c r="E80" s="32" t="s">
         <v>152</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="59"/>
+      <c r="G80" s="61"/>
     </row>
     <row r="81" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="64"/>
-      <c r="G81" s="59"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="67"/>
+      <c r="G81" s="61"/>
     </row>
     <row r="82" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="9"/>
@@ -3490,16 +3526,16 @@
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="58">
+      <c r="A83" s="60">
         <v>17</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="58" t="s">
+      <c r="C83" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="62" t="s">
+      <c r="D83" s="77" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="16" t="s">
@@ -3508,42 +3544,42 @@
       <c r="F83" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="60" t="s">
+      <c r="G83" s="65" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="59"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="63"/>
+      <c r="A84" s="61"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="88"/>
       <c r="E84" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="59"/>
+      <c r="G84" s="61"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="59"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="63"/>
+      <c r="A85" s="61"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="88"/>
       <c r="E85" s="32" t="s">
         <v>149</v>
       </c>
       <c r="F85" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="G85" s="59"/>
+      <c r="G85" s="61"/>
     </row>
     <row r="86" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="59"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="64"/>
-      <c r="G86" s="59"/>
+      <c r="A86" s="61"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="67"/>
+      <c r="G86" s="61"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="9"/>
@@ -3718,45 +3754,45 @@
       <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="58">
+      <c r="A96" s="60">
         <v>22</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C96" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D96" s="87" t="s">
+      <c r="D96" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="E96" s="60" t="s">
+      <c r="E96" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="F96" s="85" t="s">
+      <c r="F96" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="G96" s="83" t="s">
+      <c r="G96" s="62" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="59"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="86"/>
-      <c r="G97" s="84"/>
+      <c r="A97" s="61"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="61"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="63"/>
     </row>
     <row r="98" spans="1:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="59"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="84"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="63"/>
     </row>
     <row r="99" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="9"/>
@@ -3775,38 +3811,38 @@
       <c r="N99" s="14"/>
     </row>
     <row r="100" spans="1:14" ht="40.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="58">
+      <c r="A100" s="60">
         <v>23</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D100" s="60" t="s">
+      <c r="D100" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E100" s="60" t="s">
+      <c r="E100" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="F100" s="83" t="s">
+      <c r="F100" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G100" s="83" t="s">
+      <c r="G100" s="62" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="59"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59" t="s">
+      <c r="A101" s="61"/>
+      <c r="B101" s="61"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E101" s="59"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
     </row>
     <row r="102" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="9"/>
@@ -3942,55 +3978,55 @@
       <c r="N108" s="14"/>
     </row>
     <row r="109" spans="1:14" ht="55.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="58">
+      <c r="A109" s="60">
         <v>27</v>
       </c>
-      <c r="B109" s="58" t="s">
+      <c r="B109" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="D109" s="65" t="s">
         <v>197</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="60" t="s">
+      <c r="F109" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="G109" s="60" t="s">
+      <c r="G109" s="65" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="72"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="61"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="70"/>
+      <c r="D110" s="71"/>
       <c r="E110" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F110" s="61"/>
-      <c r="G110" s="59"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="61"/>
     </row>
     <row r="111" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="72"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="61"/>
+      <c r="A111" s="70"/>
+      <c r="B111" s="70"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="71"/>
       <c r="E111" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="F111" s="61"/>
-      <c r="G111" s="59"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="61"/>
     </row>
     <row r="112" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="61"/>
+      <c r="A112" s="70"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="71"/>
       <c r="E112" s="49" t="s">
         <v>199</v>
       </c>
@@ -4002,10 +4038,10 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="72"/>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="61"/>
+      <c r="A113" s="70"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="71"/>
       <c r="E113" s="51" t="s">
         <v>203</v>
       </c>
@@ -4017,10 +4053,10 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A114" s="72"/>
-      <c r="B114" s="72"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="61"/>
+      <c r="A114" s="70"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="71"/>
       <c r="E114" s="48" t="s">
         <v>207</v>
       </c>
@@ -4087,38 +4123,38 @@
       <c r="N117" s="14"/>
     </row>
     <row r="118" spans="1:14" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="58">
+      <c r="A118" s="60">
         <v>29</v>
       </c>
-      <c r="B118" s="58" t="s">
+      <c r="B118" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="58" t="s">
+      <c r="C118" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D118" s="58" t="s">
+      <c r="D118" s="60" t="s">
         <v>210</v>
       </c>
       <c r="E118" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="F118" s="58" t="s">
+      <c r="F118" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G118" s="88" t="s">
+      <c r="G118" s="72" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A119" s="59"/>
-      <c r="B119" s="59"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="59"/>
+      <c r="A119" s="61"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="61"/>
       <c r="E119" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F119" s="59"/>
-      <c r="G119" s="89"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="73"/>
     </row>
     <row r="120" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="9"/>
@@ -4137,38 +4173,38 @@
       <c r="N120" s="14"/>
     </row>
     <row r="121" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="58">
+      <c r="A121" s="60">
         <v>30</v>
       </c>
-      <c r="B121" s="58" t="s">
+      <c r="B121" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="C121" s="58" t="s">
+      <c r="C121" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="58" t="s">
+      <c r="D121" s="60" t="s">
         <v>210</v>
       </c>
       <c r="E121" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="F121" s="58" t="s">
+      <c r="F121" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="G121" s="58" t="s">
+      <c r="G121" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A122" s="59"/>
-      <c r="B122" s="59"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="59"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
       <c r="E122" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="61"/>
     </row>
     <row r="123" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="9"/>
@@ -4199,20 +4235,20 @@
       <c r="D124" t="s">
         <v>225</v>
       </c>
-      <c r="E124" s="58" t="s">
+      <c r="E124" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="F124" s="83" t="s">
+      <c r="F124" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="G124" s="83" t="s">
+      <c r="G124" s="62" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E125" s="59"/>
-      <c r="F125" s="84"/>
-      <c r="G125" s="84"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="63"/>
     </row>
     <row r="128" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="129" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4271,35 +4307,35 @@
       <c r="N131" s="14"/>
     </row>
     <row r="132" spans="1:14" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="58">
+      <c r="A132" s="60">
         <v>33</v>
       </c>
-      <c r="B132" s="58" t="s">
+      <c r="B132" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="C132" s="58" t="s">
+      <c r="C132" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="58" t="s">
+      <c r="D132" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="E132" s="58" t="s">
+      <c r="E132" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="F132" s="83" t="s">
+      <c r="F132" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="G132" s="60" t="s">
+      <c r="G132" s="65" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A133" s="59"/>
-      <c r="B133" s="59"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="59"/>
-      <c r="E133" s="59"/>
-      <c r="F133" s="90"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="61"/>
+      <c r="F133" s="64"/>
       <c r="G133" s="66"/>
     </row>
     <row r="134" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4318,104 +4354,92 @@
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="135" spans="1:14" ht="24.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>34</v>
+      </c>
+      <c r="B135" t="s">
+        <v>237</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="E135" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="F135" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="G135" s="65" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E136" s="61"/>
+      <c r="F136" s="64"/>
+      <c r="G136" s="61"/>
+    </row>
+    <row r="137" spans="1:14" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="F137" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G137" s="61"/>
+    </row>
+    <row r="138" spans="1:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="F138" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="G138" s="61"/>
+    </row>
+    <row r="139" spans="1:14" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E139" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F139" s="64"/>
+      <c r="G139" s="61"/>
+    </row>
+    <row r="140" spans="1:14" s="56" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A140" s="9"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+    </row>
+    <row r="141" spans="1:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N107" xr:uid="{71596E00-9D51-4451-9442-BC138B6C8C5D}">
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
-  <mergeCells count="116">
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="C109:C114"/>
-    <mergeCell ref="B109:B114"/>
-    <mergeCell ref="D109:D114"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="H14:H18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="G44:G48"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B71:B74"/>
+  <mergeCells count="120">
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G135:G139"/>
     <mergeCell ref="A121:A122"/>
     <mergeCell ref="F121:F122"/>
     <mergeCell ref="G121:G122"/>
@@ -4440,6 +4464,98 @@
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="G96:G98"/>
     <mergeCell ref="F96:F98"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="G44:G48"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="C109:C114"/>
+    <mergeCell ref="B109:B114"/>
+    <mergeCell ref="D109:D114"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testc.xlsx
+++ b/Testc.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haripemireddy\QATraining\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111E23F9-3943-4190-9273-291D49DE4966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387AE427-4F11-4C13-BF16-5128A893CF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$N$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$N$107</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="433">
   <si>
     <t>S.No</t>
   </si>
@@ -1270,12 +1272,331 @@
   <si>
     <t>Sign in button should be in blue color</t>
   </si>
+  <si>
+    <t>Welcome page</t>
+  </si>
+  <si>
+    <t>2. Valid username and password.</t>
+  </si>
+  <si>
+    <t>1. Url of the application</t>
+  </si>
+  <si>
+    <t>3.Observe Welcome page</t>
+  </si>
+  <si>
+    <t>3.Welcome page is observed</t>
+  </si>
+  <si>
+    <t>Welcome page should
+ display     "Welcome to Auto Tools"</t>
+  </si>
+  <si>
+    <t>User is already in welcome page</t>
+  </si>
+  <si>
+    <t>1.observe welcome page header</t>
+  </si>
+  <si>
+    <t>1.Welcome page header is 
+observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify User first name,last name
+ menu when user is in user form 
+page </t>
+  </si>
+  <si>
+    <t>User is already in user form page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Observe User first name,last 
+name menu </t>
+  </si>
+  <si>
+    <t>1.User first name last name menu is 
+observed</t>
+  </si>
+  <si>
+    <t>User first name last name menu should be highlighted</t>
+  </si>
+  <si>
+    <r>
+      <t>Welcome page header 
+should be "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Auto Tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" 
+with bold letters</t>
+    </r>
+  </si>
+  <si>
+    <t>To verify the look of Welcome page</t>
+  </si>
+  <si>
+    <t>To verify the lookof welcome page
+ header</t>
+  </si>
+  <si>
+    <t>To verify the look of the 
+menu  bar</t>
+  </si>
+  <si>
+    <t>3.Observe the menu bar</t>
+  </si>
+  <si>
+    <t>3.menu bar is observed</t>
+  </si>
+  <si>
+    <t>Menu bar should have 4 menu 
+items Auto tools menu,user first
+ name last name menu,Employee 
+Details,Region Details</t>
+  </si>
+  <si>
+    <t>2.Enter the username and password in the provided fields and click sign in               3.Observe Menu bar</t>
+  </si>
+  <si>
+    <t>2. Welcome page with autotools header displays                              3.Menu bar is observed</t>
+  </si>
+  <si>
+    <t>Menu Bar Test cases</t>
+  </si>
+  <si>
+    <t>To verify the functionality 
+of Auto tools menu</t>
+  </si>
+  <si>
+    <t>1.User is already in Welcome Auto 
+tools page</t>
+  </si>
+  <si>
+    <t>1.Click on Auto Tools</t>
+  </si>
+  <si>
+    <t>1.Auto tools menu is clicked</t>
+  </si>
+  <si>
+    <t>1.User is already in welcome to Auto 
+tools page</t>
+  </si>
+  <si>
+    <t>1.observe Auto Tools menu</t>
+  </si>
+  <si>
+    <t>Auto Tools menu is 
+observed</t>
+  </si>
+  <si>
+    <t>User should be in Auto Tools header page</t>
+  </si>
+  <si>
+    <t>To verify the functionality of Auto 
+Tools menu</t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>user is already in welcome page</t>
+  </si>
+  <si>
+    <t>1.click on Auto tools menu</t>
+  </si>
+  <si>
+    <t>User should be in "Welcome to Auto Tools"  page</t>
+  </si>
+  <si>
+    <t>1.click on auto tools menu</t>
+  </si>
+  <si>
+    <t>Auto Tools menu should be
+ highlighted</t>
+  </si>
+  <si>
+    <t>Auto Tools menu should be 
+highlighted</t>
+  </si>
+  <si>
+    <t>1.Auto tools menu is
+ clicked</t>
+  </si>
+  <si>
+    <t>1.place the cursor on user first 
+name last name menu</t>
+  </si>
+  <si>
+    <t>1.cursor is placed</t>
+  </si>
+  <si>
+    <t>First name last name menu should be highlighted and have inverted triangle</t>
+  </si>
+  <si>
+    <t>To verify user first name last
+ name menu functionality</t>
+  </si>
+  <si>
+    <t>1.click on first name last name
+ menu</t>
+  </si>
+  <si>
+    <t>1.first name last name 
+menu is clicked</t>
+  </si>
+  <si>
+    <t>first name last name menu shoud have drop down with two options "my profile " and"Logout"</t>
+  </si>
+  <si>
+    <t>1.observe first name last name
+ menu</t>
+  </si>
+  <si>
+    <t>1.first name last name 
+menu is observed</t>
+  </si>
+  <si>
+    <t>First name last name menu is
+ highlighted</t>
+  </si>
+  <si>
+    <t>1.place cursor on employee
+ details menu</t>
+  </si>
+  <si>
+    <t>1.cursor is on employee 
+details menu</t>
+  </si>
+  <si>
+    <t>Employee deails menu is 
+highlighted</t>
+  </si>
+  <si>
+    <t>1.Click on employee details menu</t>
+  </si>
+  <si>
+    <t>1.Employee details menu 
+is clicked</t>
+  </si>
+  <si>
+    <t>User should be in "Employees"
+ header page</t>
+  </si>
+  <si>
+    <t>To verify employee details
+ menu when clicked</t>
+  </si>
+  <si>
+    <t>user is already in Employees page</t>
+  </si>
+  <si>
+    <t>1.observe employee details menu</t>
+  </si>
+  <si>
+    <t>1.employee details menu
+ is observed</t>
+  </si>
+  <si>
+    <t>employees details menu is 
+highlighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu bar should be black in
+ color </t>
+  </si>
+  <si>
+    <t>To verify that Employee Details page displays when the Employees details menu is clicked</t>
+  </si>
+  <si>
+    <t>To verify User first name last
+ name menu is clickable</t>
+  </si>
+  <si>
+    <t>To verify Employee Details menu is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that AutoTools menu
+is clickable </t>
+  </si>
+  <si>
+    <t>To verify the auto tools menu when user clicked on it</t>
+  </si>
+  <si>
+    <t>To verify user first name last
+ name menu when user clicked</t>
+  </si>
+  <si>
+    <t>To verify that Region details page displays when the Region Detailsmenu is clicked</t>
+  </si>
+  <si>
+    <t>To verify that the Region Detailsmenu is clickable</t>
+  </si>
+  <si>
+    <t>1.Url of the application                           
+2.Valid email and password</t>
+  </si>
+  <si>
+    <t>1.cursor is on Region
+ Details menu</t>
+  </si>
+  <si>
+    <t>Region Details menu is 
+highlighted</t>
+  </si>
+  <si>
+    <t>1.User is already in welcome page</t>
+  </si>
+  <si>
+    <t>1.Enter email and assword 2.place cursor on Region details menu</t>
+  </si>
+  <si>
+    <t>1.Click on Region Details menu</t>
+  </si>
+  <si>
+    <t>1.Region Details menu is 
+clicked</t>
+  </si>
+  <si>
+    <t>User should be in "Regions" 
+header page</t>
+  </si>
+  <si>
+    <t>To verify the Region Details 
+menu when clicked</t>
+  </si>
+  <si>
+    <t>User is already in Regions page</t>
+  </si>
+  <si>
+    <t>1.Observe Region Details menu</t>
+  </si>
+  <si>
+    <t>1.Region Details menu is 
+observed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +1664,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1358,7 +1686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1443,11 +1771,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1719,6 +2056,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1878,40 +2275,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1921,8 +2318,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2238,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2269,10 +2675,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="105"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2307,13 +2713,13 @@
       <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="103" t="s">
+      <c r="H4" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2324,9 +2730,9 @@
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="126"/>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="4" t="s">
@@ -2335,9 +2741,9 @@
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
@@ -2355,13 +2761,13 @@
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2372,9 +2778,9 @@
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="4" t="s">
@@ -2383,9 +2789,9 @@
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="4" t="s">
@@ -2394,9 +2800,9 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
     </row>
     <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="3" t="s">
@@ -2405,9 +2811,9 @@
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="126"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
@@ -2425,13 +2831,13 @@
       <c r="F16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="104" t="s">
+      <c r="H16" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="104" t="s">
+      <c r="I16" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2442,9 +2848,9 @@
       <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="126"/>
+      <c r="I17" s="126"/>
     </row>
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="4" t="s">
@@ -2453,9 +2859,9 @@
       <c r="F18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="4" t="s">
@@ -2464,9 +2870,9 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="126"/>
     </row>
     <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
@@ -2487,13 +2893,13 @@
       <c r="F22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="104" t="s">
+      <c r="H22" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="104" t="s">
+      <c r="I22" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2504,9 +2910,9 @@
       <c r="F23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" s="4" t="s">
@@ -2515,9 +2921,9 @@
       <c r="F24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="103"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" s="4" t="s">
@@ -2526,9 +2932,9 @@
       <c r="F25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
@@ -2546,13 +2952,13 @@
       <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="104" t="s">
+      <c r="I28" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2563,9 +2969,9 @@
       <c r="F29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" s="4" t="s">
@@ -2574,9 +2980,9 @@
       <c r="F30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="104"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="126"/>
     </row>
     <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" s="4" t="s">
@@ -2585,9 +2991,9 @@
       <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="104"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
@@ -2605,13 +3011,13 @@
       <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="103" t="s">
+      <c r="H34" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="104" t="s">
+      <c r="I34" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2622,9 +3028,9 @@
       <c r="F35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="104"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="126"/>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="4" t="s">
@@ -2633,9 +3039,9 @@
       <c r="F36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="104"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="126"/>
     </row>
     <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="4" t="s">
@@ -2644,9 +3050,9 @@
       <c r="F37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="104"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="126"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
@@ -2664,13 +3070,13 @@
       <c r="F40" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="103" t="s">
+      <c r="H40" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="I40" s="104" t="s">
+      <c r="I40" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2681,9 +3087,9 @@
       <c r="F41" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="104"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="126"/>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="4" t="s">
@@ -2692,9 +3098,9 @@
       <c r="F42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="104"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="126"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="4" t="s">
@@ -2703,9 +3109,9 @@
       <c r="F43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="104"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="126"/>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
@@ -2723,13 +3129,13 @@
       <c r="F46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="103" t="s">
+      <c r="G46" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="103" t="s">
+      <c r="H46" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="104" t="s">
+      <c r="I46" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2740,9 +3146,9 @@
       <c r="F47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="104"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="126"/>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" s="4" t="s">
@@ -2751,9 +3157,9 @@
       <c r="F48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="104"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="126"/>
     </row>
     <row r="49" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" s="4" t="s">
@@ -2762,9 +3168,9 @@
       <c r="F49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="104"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="126"/>
     </row>
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
@@ -2785,13 +3191,13 @@
       <c r="F52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="103" t="s">
+      <c r="G52" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="H52" s="103" t="s">
+      <c r="H52" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="104" t="s">
+      <c r="I52" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2802,9 +3208,9 @@
       <c r="F53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="104"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="126"/>
     </row>
     <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E54" s="4" t="s">
@@ -2813,9 +3219,9 @@
       <c r="F54" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="104"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="126"/>
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="4" t="s">
@@ -2824,9 +3230,9 @@
       <c r="F55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="104"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
@@ -2844,13 +3250,13 @@
       <c r="F58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="103" t="s">
+      <c r="G58" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="H58" s="103" t="s">
+      <c r="H58" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="I58" s="104" t="s">
+      <c r="I58" s="126" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2861,9 +3267,9 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="104"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="126"/>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" s="4" t="s">
@@ -2872,9 +3278,9 @@
       <c r="F60" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="104"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="126"/>
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" s="4" t="s">
@@ -2883,9 +3289,37 @@
       <c r="F61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="104"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="126"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="106"/>
+      <c r="C77" s="106"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="106"/>
+      <c r="C78" s="106"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="106"/>
+      <c r="C79" s="106"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="106"/>
+      <c r="C80" s="106"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="106"/>
+      <c r="C81" s="106"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="106"/>
+      <c r="C83" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2927,12 +3361,662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155C3499-338E-42D4-B1B9-9E995D9A0663}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.26171875" customWidth="1"/>
+    <col min="2" max="2" width="26.20703125" customWidth="1"/>
+    <col min="3" max="3" width="17.26171875" customWidth="1"/>
+    <col min="4" max="4" width="30.1015625" customWidth="1"/>
+    <col min="5" max="5" width="26.68359375" customWidth="1"/>
+    <col min="6" max="6" width="21.68359375" customWidth="1"/>
+    <col min="7" max="7" width="25.62890625" customWidth="1"/>
+    <col min="8" max="8" width="26.41796875" customWidth="1"/>
+    <col min="9" max="9" width="13.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="199" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="163"/>
+      <c r="G2" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D5" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="45.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="110"/>
+    </row>
+    <row r="9" spans="1:9" ht="88.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="114" t="s">
+        <v>374</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="116" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="119" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="118">
+        <v>5</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="117" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="119" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="118">
+        <v>6</v>
+      </c>
+      <c r="B17" s="119" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17" s="117" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="120" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="83"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>414</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G19" s="119" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="119" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="119" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="F23" s="119" t="s">
+        <v>399</v>
+      </c>
+      <c r="G23" s="119" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="123" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="119" t="s">
+        <v>401</v>
+      </c>
+      <c r="F25" s="119" t="s">
+        <v>402</v>
+      </c>
+      <c r="G25" s="119" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="69.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" s="200" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F27" s="119" t="s">
+        <v>405</v>
+      </c>
+      <c r="G27" s="119" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="51" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" s="119" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="119" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" s="175" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="122" t="s">
+        <v>421</v>
+      </c>
+      <c r="E31" s="200" t="s">
+        <v>425</v>
+      </c>
+      <c r="F31" s="122" t="s">
+        <v>422</v>
+      </c>
+      <c r="G31" s="122" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B32" s="177"/>
+    </row>
+    <row r="33" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="35" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="121">
+        <v>14</v>
+      </c>
+      <c r="B35" s="122" t="s">
+        <v>419</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E35" t="s">
+        <v>426</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" s="122" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="175">
+        <v>15</v>
+      </c>
+      <c r="B37" s="175" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="175" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="175" t="s">
+        <v>430</v>
+      </c>
+      <c r="E37" s="175" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="175" t="s">
+        <v>432</v>
+      </c>
+      <c r="G37" s="175" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="177"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+    </row>
+    <row r="39" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="83"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A37:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C574D-0BB6-4981-A71F-7914F08050FB}">
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38:G42"/>
+      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2961,10 +4045,10 @@
       <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="141"/>
+      <c r="F1" s="163"/>
       <c r="G1" s="44" t="s">
         <v>5</v>
       </c>
@@ -3002,16 +4086,16 @@
       <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="28.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="146">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="147" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -3020,40 +4104,40 @@
       <c r="F4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="113"/>
+      <c r="H4" s="135"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="147"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="113"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="135"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="148"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="135"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3068,16 +4152,16 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="149">
+      <c r="A8" s="171">
         <v>2</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="160" t="s">
         <v>220</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -3086,40 +4170,40 @@
       <c r="F8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="130"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A9" s="150"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="139"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="130"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="151"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="15" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="137"/>
-      <c r="H10" s="130"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" s="13" customFormat="1" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
@@ -3170,16 +4254,16 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="126">
+      <c r="A14" s="148">
         <v>4</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="138" t="s">
+      <c r="C14" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="133" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -3188,70 +4272,70 @@
       <c r="F14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="111" t="s">
+      <c r="G14" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="128"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A15" s="127"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="130"/>
+      <c r="A15" s="149"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="15" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="129"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="151"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A16" s="127"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="130"/>
+      <c r="A16" s="149"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="152"/>
       <c r="E16" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="129"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="151"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A17" s="127"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="130"/>
+      <c r="A17" s="149"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="152"/>
       <c r="E17" s="15" t="s">
         <v>222</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="129"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="151"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="152"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="130"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="152"/>
       <c r="E18" s="15" t="s">
         <v>92</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="129"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="151"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -3271,16 +4355,16 @@
       <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" ht="52.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="126">
+      <c r="A20" s="148">
         <v>5</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="133" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -3289,61 +4373,61 @@
       <c r="F20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="133" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="127"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="130"/>
+      <c r="A21" s="149"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="152"/>
       <c r="E21" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="130"/>
+      <c r="G21" s="152"/>
     </row>
     <row r="22" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A22" s="127"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="130"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="152"/>
       <c r="E22" s="16" t="s">
         <v>91</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="130"/>
+      <c r="G22" s="152"/>
     </row>
     <row r="23" spans="1:14" ht="44.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="127"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="130"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="130"/>
+      <c r="G23" s="152"/>
     </row>
     <row r="24" spans="1:14" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="127"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="130"/>
+      <c r="A24" s="149"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="130"/>
+      <c r="G24" s="152"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="8"/>
@@ -3362,16 +4446,16 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="130">
+      <c r="A26" s="152">
         <v>6</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="152" t="s">
         <v>123</v>
       </c>
       <c r="E26" s="27" t="s">
@@ -3380,61 +4464,61 @@
       <c r="F26" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="125" t="s">
+      <c r="G26" s="147" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="107"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="29" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="125"/>
+      <c r="G27" s="147"/>
     </row>
     <row r="28" spans="1:14" ht="44.1" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="130"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="107"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="28" t="s">
         <v>91</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="125"/>
+      <c r="G28" s="147"/>
     </row>
     <row r="29" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="107"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="125"/>
+      <c r="G29" s="147"/>
     </row>
     <row r="30" spans="1:14" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="107"/>
+      <c r="A30" s="152"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="24" t="s">
         <v>124</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G30" s="125"/>
+      <c r="G30" s="147"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A31" s="8"/>
@@ -3453,75 +4537,75 @@
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="111">
+      <c r="A32" s="133">
         <v>7</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="138" t="s">
+      <c r="E32" s="160" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="125" t="s">
+      <c r="G32" s="147" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="139"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="161"/>
       <c r="F33" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="125"/>
+      <c r="G33" s="147"/>
     </row>
     <row r="34" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="139"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="161"/>
       <c r="F34" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="125"/>
+      <c r="G34" s="147"/>
     </row>
     <row r="35" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="113"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="125"/>
+      <c r="G35" s="147"/>
     </row>
     <row r="36" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="113"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="135"/>
       <c r="E36" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="147"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="8"/>
@@ -3540,63 +4624,63 @@
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="111">
+      <c r="A38" s="133">
         <v>8</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="132" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="125" t="s">
+      <c r="G38" s="147" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="113"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="135"/>
       <c r="E39" s="24"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="125"/>
+      <c r="G39" s="147"/>
     </row>
     <row r="40" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="113"/>
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="135"/>
       <c r="E40" s="23"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="125"/>
+      <c r="G40" s="147"/>
     </row>
     <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="113"/>
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="135"/>
       <c r="E41" s="24"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="125"/>
+      <c r="G41" s="147"/>
     </row>
     <row r="42" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="113"/>
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="135"/>
       <c r="E42" s="24" t="s">
         <v>106</v>
       </c>
       <c r="F42" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="125"/>
+      <c r="G42" s="147"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="8"/>
@@ -3615,16 +4699,16 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="62.7" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="111">
+      <c r="A44" s="133">
         <v>9</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="133" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="132" t="s">
         <v>224</v>
       </c>
       <c r="E44" s="15" t="s">
@@ -3633,53 +4717,53 @@
       <c r="F44" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G44" s="125" t="s">
+      <c r="G44" s="147" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="113"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="113"/>
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="135"/>
       <c r="E45" s="24" t="s">
         <v>227</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="G45" s="125"/>
+      <c r="G45" s="147"/>
     </row>
     <row r="46" spans="1:14" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A46" s="113"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="113"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="135"/>
       <c r="E46" s="23" t="s">
         <v>229</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G46" s="125"/>
+      <c r="G46" s="147"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="113"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="113"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="135"/>
       <c r="E47" s="24"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="125"/>
+      <c r="G47" s="147"/>
     </row>
     <row r="48" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="113"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="113"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="135"/>
       <c r="E48" s="24"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="125"/>
+      <c r="G48" s="147"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="8"/>
@@ -3698,16 +4782,16 @@
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" s="72" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="121">
+      <c r="A50" s="143">
         <v>10</v>
       </c>
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="134" t="s">
+      <c r="D50" s="156" t="s">
         <v>100</v>
       </c>
       <c r="E50" s="27" t="s">
@@ -3716,61 +4800,61 @@
       <c r="F50" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="135" t="s">
+      <c r="G50" s="157" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="72" customFormat="1" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="120"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="120"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="142"/>
       <c r="E51" s="29" t="s">
         <v>69</v>
       </c>
       <c r="F51" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="135"/>
+      <c r="G51" s="157"/>
     </row>
     <row r="52" spans="1:14" s="72" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A52" s="120"/>
-      <c r="B52" s="120"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="120"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="142"/>
       <c r="E52" s="28" t="s">
         <v>91</v>
       </c>
       <c r="F52" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G52" s="135"/>
+      <c r="G52" s="157"/>
     </row>
     <row r="53" spans="1:14" s="72" customFormat="1" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="120"/>
-      <c r="B53" s="120"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="120"/>
+      <c r="A53" s="142"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="141"/>
+      <c r="D53" s="142"/>
       <c r="E53" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G53" s="135"/>
+      <c r="G53" s="157"/>
     </row>
     <row r="54" spans="1:14" s="72" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A54" s="120"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="120"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="142"/>
       <c r="E54" s="29" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G54" s="135"/>
+      <c r="G54" s="157"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A55" s="8"/>
@@ -3792,13 +4876,13 @@
       <c r="A56" s="94">
         <v>11</v>
       </c>
-      <c r="B56" s="131" t="s">
+      <c r="B56" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="144" t="s">
+      <c r="D56" s="166" t="s">
         <v>112</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -3807,61 +4891,61 @@
       <c r="F56" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="G56" s="142" t="s">
+      <c r="G56" s="164" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="72" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="94"/>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F57" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G57" s="143"/>
+      <c r="G57" s="165"/>
     </row>
     <row r="58" spans="1:14" s="72" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A58" s="94"/>
-      <c r="B58" s="132"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
       <c r="E58" s="64" t="s">
         <v>91</v>
       </c>
       <c r="F58" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="143"/>
+      <c r="G58" s="165"/>
     </row>
     <row r="59" spans="1:14" s="72" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="94"/>
-      <c r="B59" s="132"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
+      <c r="B59" s="154"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="154"/>
       <c r="E59" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F59" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G59" s="143"/>
+      <c r="G59" s="165"/>
     </row>
     <row r="60" spans="1:14" s="72" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A60" s="94"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
+      <c r="B60" s="154"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
       <c r="E60" s="24" t="s">
         <v>114</v>
       </c>
       <c r="F60" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G60" s="143"/>
+      <c r="G60" s="165"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="8"/>
@@ -3880,16 +4964,16 @@
       <c r="N61" s="13"/>
     </row>
     <row r="62" spans="1:14" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="106">
+      <c r="A62" s="128">
         <v>12</v>
       </c>
-      <c r="B62" s="110" t="s">
+      <c r="B62" s="132" t="s">
         <v>233</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="111" t="s">
+      <c r="D62" s="133" t="s">
         <v>116</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -3903,10 +4987,10 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="107"/>
-      <c r="B63" s="125"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="112"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="134"/>
       <c r="E63" s="24" t="s">
         <v>69</v>
       </c>
@@ -3915,10 +4999,10 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A64" s="107"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="107"/>
-      <c r="D64" s="112"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="134"/>
       <c r="E64" s="25" t="s">
         <v>117</v>
       </c>
@@ -3943,16 +5027,16 @@
       <c r="N65" s="13"/>
     </row>
     <row r="66" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="124">
+      <c r="A66" s="146">
         <v>13</v>
       </c>
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="146" t="s">
         <v>234</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="111" t="s">
+      <c r="D66" s="133" t="s">
         <v>235</v>
       </c>
       <c r="E66" s="15" t="s">
@@ -3961,39 +5045,39 @@
       <c r="F66" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="G66" s="110" t="s">
+      <c r="G66" s="132" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="113"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
+      <c r="A67" s="135"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
       <c r="E67" s="24" t="s">
         <v>238</v>
       </c>
       <c r="F67" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="123"/>
+      <c r="G67" s="145"/>
     </row>
     <row r="68" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A68" s="113"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
+      <c r="A68" s="135"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
       <c r="E68" s="25"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="123"/>
+      <c r="G68" s="145"/>
     </row>
     <row r="69" spans="1:14" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A69" s="113"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
+      <c r="A69" s="135"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
       <c r="E69" s="25"/>
-      <c r="G69" s="123"/>
+      <c r="G69" s="145"/>
     </row>
     <row r="70" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A70" s="8"/>
@@ -4012,14 +5096,14 @@
       <c r="N70" s="13"/>
     </row>
     <row r="71" spans="1:14" s="72" customFormat="1" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="118">
+      <c r="A71" s="140">
         <v>14</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="118"/>
-      <c r="D71" s="121" t="s">
+      <c r="C71" s="140"/>
+      <c r="D71" s="143" t="s">
         <v>116</v>
       </c>
       <c r="E71" s="27" t="s">
@@ -4030,10 +5114,10 @@
       </c>
     </row>
     <row r="72" spans="1:14" s="72" customFormat="1" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="119"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="119"/>
-      <c r="D72" s="122"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="144"/>
       <c r="E72" s="29" t="s">
         <v>69</v>
       </c>
@@ -4045,10 +5129,10 @@
       </c>
     </row>
     <row r="73" spans="1:14" s="72" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="119"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="122"/>
+      <c r="A73" s="141"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="144"/>
       <c r="E73" s="28" t="s">
         <v>117</v>
       </c>
@@ -4057,10 +5141,10 @@
       </c>
     </row>
     <row r="74" spans="1:14" s="72" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A74" s="120"/>
-      <c r="B74" s="120"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
+      <c r="A74" s="142"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="142"/>
       <c r="E74" s="28" t="s">
         <v>121</v>
       </c>
@@ -4124,16 +5208,16 @@
       <c r="N77" s="13"/>
     </row>
     <row r="78" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="106">
+      <c r="A78" s="128">
         <v>16</v>
       </c>
-      <c r="B78" s="106" t="s">
+      <c r="B78" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="106" t="s">
+      <c r="C78" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="111" t="s">
+      <c r="D78" s="133" t="s">
         <v>116</v>
       </c>
       <c r="E78" s="15" t="s">
@@ -4142,42 +5226,42 @@
       <c r="F78" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G78" s="110" t="s">
+      <c r="G78" s="132" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="107"/>
-      <c r="B79" s="107"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="112"/>
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="134"/>
       <c r="E79" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F79" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="107"/>
+      <c r="G79" s="129"/>
     </row>
     <row r="80" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="107"/>
-      <c r="B80" s="107"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="112"/>
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="134"/>
       <c r="E80" s="31" t="s">
         <v>138</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="107"/>
+      <c r="G80" s="129"/>
     </row>
     <row r="81" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="107"/>
-      <c r="B81" s="107"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="113"/>
-      <c r="G81" s="107"/>
+      <c r="A81" s="129"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="129"/>
+      <c r="D81" s="135"/>
+      <c r="G81" s="129"/>
     </row>
     <row r="82" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A82" s="8"/>
@@ -4196,16 +5280,16 @@
       <c r="N82" s="13"/>
     </row>
     <row r="83" spans="1:14" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="106">
+      <c r="A83" s="128">
         <v>17</v>
       </c>
-      <c r="B83" s="106" t="s">
+      <c r="B83" s="128" t="s">
         <v>134</v>
       </c>
-      <c r="C83" s="106" t="s">
+      <c r="C83" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="111" t="s">
+      <c r="D83" s="133" t="s">
         <v>116</v>
       </c>
       <c r="E83" s="15" t="s">
@@ -4214,42 +5298,42 @@
       <c r="F83" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G83" s="110" t="s">
+      <c r="G83" s="132" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="107"/>
-      <c r="B84" s="107"/>
-      <c r="C84" s="107"/>
-      <c r="D84" s="112"/>
+      <c r="A84" s="129"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="134"/>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F84" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G84" s="107"/>
+      <c r="G84" s="129"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="107"/>
-      <c r="B85" s="107"/>
-      <c r="C85" s="107"/>
-      <c r="D85" s="112"/>
+      <c r="A85" s="129"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="129"/>
+      <c r="D85" s="134"/>
       <c r="E85" s="31" t="s">
         <v>135</v>
       </c>
       <c r="F85" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="G85" s="107"/>
+      <c r="G85" s="129"/>
     </row>
     <row r="86" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A86" s="107"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="113"/>
-      <c r="G86" s="107"/>
+      <c r="A86" s="129"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="135"/>
+      <c r="G86" s="129"/>
     </row>
     <row r="87" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A87" s="8"/>
@@ -4424,45 +5508,45 @@
       <c r="N95" s="13"/>
     </row>
     <row r="96" spans="1:14" ht="14.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="106">
+      <c r="A96" s="128">
         <v>22</v>
       </c>
-      <c r="B96" s="106" t="s">
+      <c r="B96" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="106" t="s">
+      <c r="C96" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="D96" s="117" t="s">
+      <c r="D96" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="E96" s="110" t="s">
+      <c r="E96" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="F96" s="115" t="s">
+      <c r="F96" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="G96" s="108" t="s">
+      <c r="G96" s="130" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="107"/>
-      <c r="B97" s="107"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="114"/>
+      <c r="A97" s="129"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="129"/>
+      <c r="D97" s="138"/>
+      <c r="E97" s="129"/>
+      <c r="F97" s="138"/>
+      <c r="G97" s="136"/>
     </row>
     <row r="98" spans="1:14" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A98" s="107"/>
-      <c r="B98" s="107"/>
-      <c r="C98" s="113"/>
-      <c r="D98" s="113"/>
-      <c r="E98" s="113"/>
-      <c r="F98" s="116"/>
-      <c r="G98" s="114"/>
+      <c r="A98" s="129"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="135"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="138"/>
+      <c r="G98" s="136"/>
     </row>
     <row r="99" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A99" s="8"/>
@@ -4481,38 +5565,38 @@
       <c r="N99" s="13"/>
     </row>
     <row r="100" spans="1:14" ht="40.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="106">
+      <c r="A100" s="128">
         <v>23</v>
       </c>
-      <c r="B100" s="106" t="s">
+      <c r="B100" s="128" t="s">
         <v>164</v>
       </c>
-      <c r="C100" s="106" t="s">
+      <c r="C100" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="D100" s="110" t="s">
+      <c r="D100" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="E100" s="110" t="s">
+      <c r="E100" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="F100" s="108" t="s">
+      <c r="F100" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="G100" s="108" t="s">
+      <c r="G100" s="130" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A101" s="107"/>
-      <c r="B101" s="107"/>
-      <c r="C101" s="107"/>
-      <c r="D101" s="107" t="s">
+      <c r="A101" s="129"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="129"/>
+      <c r="D101" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="E101" s="107"/>
-      <c r="F101" s="113"/>
-      <c r="G101" s="113"/>
+      <c r="E101" s="129"/>
+      <c r="F101" s="135"/>
+      <c r="G101" s="135"/>
     </row>
     <row r="102" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A102" s="8"/>
@@ -4648,16 +5732,16 @@
       <c r="N108" s="13"/>
     </row>
     <row r="109" spans="1:14" ht="55.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="106">
+      <c r="A109" s="128">
         <v>27</v>
       </c>
-      <c r="B109" s="110" t="s">
+      <c r="B109" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="C109" s="106" t="s">
+      <c r="C109" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="110" t="s">
+      <c r="D109" s="132" t="s">
         <v>247</v>
       </c>
       <c r="E109" s="7" t="s">
@@ -4666,59 +5750,59 @@
       <c r="F109" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="G109" s="110" t="s">
+      <c r="G109" s="132" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="145"/>
-      <c r="B110" s="123"/>
-      <c r="C110" s="145"/>
-      <c r="D110" s="123"/>
+      <c r="A110" s="167"/>
+      <c r="B110" s="145"/>
+      <c r="C110" s="167"/>
+      <c r="D110" s="145"/>
       <c r="E110" s="51" t="s">
         <v>244</v>
       </c>
       <c r="F110" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="G110" s="107"/>
+      <c r="G110" s="129"/>
     </row>
     <row r="111" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="145"/>
-      <c r="B111" s="123"/>
-      <c r="C111" s="145"/>
-      <c r="D111" s="123"/>
+      <c r="A111" s="167"/>
+      <c r="B111" s="145"/>
+      <c r="C111" s="167"/>
+      <c r="D111" s="145"/>
       <c r="E111" s="52" t="s">
         <v>246</v>
       </c>
       <c r="F111" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="G111" s="107"/>
+      <c r="G111" s="129"/>
     </row>
     <row r="112" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="145"/>
-      <c r="B112" s="123"/>
-      <c r="C112" s="145"/>
-      <c r="D112" s="123"/>
+      <c r="A112" s="167"/>
+      <c r="B112" s="145"/>
+      <c r="C112" s="167"/>
+      <c r="D112" s="145"/>
       <c r="E112" s="48"/>
       <c r="F112" s="48"/>
       <c r="G112" s="49"/>
     </row>
     <row r="113" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="145"/>
-      <c r="B113" s="123"/>
-      <c r="C113" s="145"/>
-      <c r="D113" s="123"/>
+      <c r="A113" s="167"/>
+      <c r="B113" s="145"/>
+      <c r="C113" s="167"/>
+      <c r="D113" s="145"/>
       <c r="E113" s="50"/>
       <c r="F113" s="48"/>
       <c r="G113" s="48"/>
     </row>
     <row r="114" spans="1:14" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A114" s="145"/>
-      <c r="B114" s="123"/>
-      <c r="C114" s="145"/>
-      <c r="D114" s="123"/>
+      <c r="A114" s="167"/>
+      <c r="B114" s="145"/>
+      <c r="C114" s="167"/>
+      <c r="D114" s="145"/>
       <c r="E114" s="47"/>
     </row>
     <row r="115" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4777,38 +5861,38 @@
       <c r="N117" s="13"/>
     </row>
     <row r="118" spans="1:14" ht="27.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A118" s="106">
+      <c r="A118" s="128">
         <v>29</v>
       </c>
-      <c r="B118" s="106" t="s">
+      <c r="B118" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="C118" s="106" t="s">
+      <c r="C118" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D118" s="106" t="s">
+      <c r="D118" s="128" t="s">
         <v>182</v>
       </c>
       <c r="E118" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="F118" s="106" t="s">
+      <c r="F118" s="128" t="s">
         <v>190</v>
       </c>
-      <c r="G118" s="146" t="s">
+      <c r="G118" s="168" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A119" s="107"/>
-      <c r="B119" s="107"/>
-      <c r="C119" s="107"/>
-      <c r="D119" s="107"/>
+      <c r="A119" s="129"/>
+      <c r="B119" s="129"/>
+      <c r="C119" s="129"/>
+      <c r="D119" s="129"/>
       <c r="E119" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="F119" s="107"/>
-      <c r="G119" s="147"/>
+      <c r="F119" s="129"/>
+      <c r="G119" s="169"/>
     </row>
     <row r="120" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A120" s="8"/>
@@ -4827,38 +5911,38 @@
       <c r="N120" s="13"/>
     </row>
     <row r="121" spans="1:14" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="106">
+      <c r="A121" s="128">
         <v>30</v>
       </c>
-      <c r="B121" s="106" t="s">
+      <c r="B121" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="C121" s="106" t="s">
+      <c r="C121" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="106" t="s">
+      <c r="D121" s="128" t="s">
         <v>182</v>
       </c>
       <c r="E121" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="F121" s="106" t="s">
+      <c r="F121" s="128" t="s">
         <v>194</v>
       </c>
-      <c r="G121" s="106" t="s">
+      <c r="G121" s="128" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A122" s="107"/>
-      <c r="B122" s="107"/>
-      <c r="C122" s="107"/>
-      <c r="D122" s="107"/>
+      <c r="A122" s="129"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="129"/>
+      <c r="D122" s="129"/>
       <c r="E122" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="F122" s="107"/>
-      <c r="G122" s="107"/>
+      <c r="F122" s="129"/>
+      <c r="G122" s="129"/>
     </row>
     <row r="123" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="8"/>
@@ -4889,20 +5973,20 @@
       <c r="D124" t="s">
         <v>197</v>
       </c>
-      <c r="E124" s="106" t="s">
+      <c r="E124" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="F124" s="108" t="s">
+      <c r="F124" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="G124" s="108" t="s">
+      <c r="G124" s="130" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E125" s="107"/>
-      <c r="F125" s="114"/>
-      <c r="G125" s="114"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="136"/>
+      <c r="G125" s="136"/>
     </row>
     <row r="128" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="129" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -4961,36 +6045,36 @@
       <c r="N131" s="13"/>
     </row>
     <row r="132" spans="1:14" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A132" s="106">
+      <c r="A132" s="128">
         <v>33</v>
       </c>
-      <c r="B132" s="106" t="s">
+      <c r="B132" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="C132" s="106" t="s">
+      <c r="C132" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="106" t="s">
+      <c r="D132" s="128" t="s">
         <v>197</v>
       </c>
-      <c r="E132" s="106" t="s">
+      <c r="E132" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="F132" s="108" t="s">
+      <c r="F132" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G132" s="110" t="s">
+      <c r="G132" s="132" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A133" s="107"/>
-      <c r="B133" s="107"/>
-      <c r="C133" s="107"/>
-      <c r="D133" s="107"/>
-      <c r="E133" s="107"/>
-      <c r="F133" s="109"/>
-      <c r="G133" s="125"/>
+      <c r="A133" s="129"/>
+      <c r="B133" s="129"/>
+      <c r="C133" s="129"/>
+      <c r="D133" s="129"/>
+      <c r="E133" s="129"/>
+      <c r="F133" s="131"/>
+      <c r="G133" s="147"/>
     </row>
     <row r="134" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A134" s="8"/>
@@ -5021,13 +6105,13 @@
       <c r="D135" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="E135" s="106" t="s">
+      <c r="E135" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F135" s="108" t="s">
+      <c r="F135" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G135" s="110" t="s">
+      <c r="G135" s="132" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5035,9 +6119,9 @@
       <c r="D136" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="E136" s="107"/>
-      <c r="F136" s="109"/>
-      <c r="G136" s="107"/>
+      <c r="E136" s="129"/>
+      <c r="F136" s="131"/>
+      <c r="G136" s="129"/>
     </row>
     <row r="137" spans="1:14" ht="29.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E137" s="54" t="s">
@@ -5046,23 +6130,23 @@
       <c r="F137" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="G137" s="107"/>
+      <c r="G137" s="129"/>
     </row>
     <row r="138" spans="1:14" ht="21.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E138" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="F138" s="109" t="s">
+      <c r="F138" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="G138" s="107"/>
+      <c r="G138" s="129"/>
     </row>
     <row r="139" spans="1:14" ht="26.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E139" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="F139" s="109"/>
-      <c r="G139" s="107"/>
+      <c r="F139" s="131"/>
+      <c r="G139" s="129"/>
     </row>
     <row r="140" spans="1:14" s="55" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A140" s="8"/>
@@ -5084,6 +6168,25 @@
       <c r="A141">
         <v>35</v>
       </c>
+      <c r="F141" s="113"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F142" s="115"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F143" s="115"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="F144" s="115"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F145" s="115"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F146" s="115"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F147" s="115"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N107" xr:uid="{71596E00-9D51-4451-9442-BC138B6C8C5D}">
@@ -5218,11 +6321,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4E8FE3-8886-4456-9A6A-8232B554CD32}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="C48" sqref="C48:C49"/>
     </sheetView>
   </sheetViews>
@@ -5240,17 +6343,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="178" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
@@ -5276,10 +6379,10 @@
       <c r="D2" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="44" t="s">
         <v>254</v>
       </c>
@@ -5306,16 +6409,16 @@
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:20" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="146">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="147" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="147" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -5324,35 +6427,35 @@
       <c r="F4" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="125" t="s">
+      <c r="G4" s="147" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="147"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
+      <c r="A5" s="169"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="125"/>
+      <c r="G5" s="147"/>
     </row>
     <row r="6" spans="1:20" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="148"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="125"/>
+      <c r="G6" s="147"/>
     </row>
     <row r="7" spans="1:20" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="8"/>
@@ -5366,16 +6469,16 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:20" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="149">
+      <c r="A8" s="171">
         <v>2</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="160" t="s">
         <v>220</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -5384,35 +6487,35 @@
       <c r="F8" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="136" t="s">
+      <c r="G8" s="158" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="62.4" x14ac:dyDescent="0.6">
-      <c r="A9" s="150"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="139"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="159"/>
     </row>
     <row r="10" spans="1:20" ht="31.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="151"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
       <c r="E10" s="15" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="137"/>
+      <c r="G10" s="159"/>
     </row>
     <row r="11" spans="1:20" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="8"/>
@@ -5460,43 +6563,43 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:20" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="146">
+      <c r="A14" s="168">
         <v>4</v>
       </c>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="175" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="168" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="132" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="158"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="158"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="107"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="158"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="158"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="58"/>
       <c r="E16" s="56" t="s">
         <v>213</v>
@@ -5504,31 +6607,31 @@
       <c r="F16" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G16" s="107"/>
+      <c r="G16" s="129"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="158"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="158"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="58"/>
       <c r="E17" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="G17" s="107"/>
+      <c r="G17" s="129"/>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="148"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="148"/>
+      <c r="A18" s="170"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="170"/>
       <c r="D18" s="58"/>
       <c r="E18" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="107"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="129"/>
     </row>
     <row r="19" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="8"/>
@@ -5542,43 +6645,43 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="149">
+      <c r="A20" s="171">
         <v>5</v>
       </c>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="133" t="s">
         <v>259</v>
       </c>
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="132" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="150"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="145"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="107"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="129"/>
     </row>
     <row r="22" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="150"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="145"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="167"/>
       <c r="D22" s="64"/>
       <c r="E22" s="56" t="s">
         <v>213</v>
@@ -5586,31 +6689,31 @@
       <c r="F22" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G22" s="107"/>
+      <c r="G22" s="129"/>
     </row>
     <row r="23" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="150"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="145"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="64"/>
       <c r="E23" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="107"/>
+      <c r="G23" s="129"/>
     </row>
     <row r="24" spans="1:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="150"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="145"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="64"/>
       <c r="E24" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="109"/>
-      <c r="G24" s="107"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="129"/>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="8"/>
@@ -5624,43 +6727,43 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="146">
+      <c r="A26" s="168">
         <v>6</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="160" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="146" t="s">
+      <c r="C26" s="168" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="108" t="s">
+      <c r="F26" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G26" s="110" t="s">
+      <c r="G26" s="132" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="147"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="158"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="180"/>
       <c r="D27" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="123"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="145"/>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="147"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="158"/>
+      <c r="A28" s="169"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="180"/>
       <c r="D28" s="64"/>
       <c r="E28" s="80" t="s">
         <v>261</v>
@@ -5668,12 +6771,12 @@
       <c r="F28" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="G28" s="123"/>
+      <c r="G28" s="145"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="147"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="158"/>
+      <c r="A29" s="169"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="64"/>
       <c r="E29" s="56" t="s">
         <v>262</v>
@@ -5681,30 +6784,30 @@
       <c r="F29" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G29" s="123"/>
+      <c r="G29" s="145"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="147"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="158"/>
+      <c r="A30" s="169"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="180"/>
       <c r="D30" s="64"/>
       <c r="E30" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="136" t="s">
         <v>266</v>
       </c>
-      <c r="G30" s="123"/>
+      <c r="G30" s="145"/>
     </row>
     <row r="31" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="148"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="148"/>
+      <c r="A31" s="170"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="170"/>
       <c r="E31" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="123"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="32" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="8"/>
@@ -5721,38 +6824,38 @@
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="160" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="146" t="s">
+      <c r="C33" s="168" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="106" t="s">
+      <c r="E33" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="132" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="133"/>
-      <c r="C34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="180"/>
       <c r="D34" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="107"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="123"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="145"/>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="133"/>
-      <c r="C35" s="158"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="180"/>
       <c r="D35" s="64"/>
       <c r="E35" s="80" t="s">
         <v>267</v>
@@ -5760,11 +6863,11 @@
       <c r="F35" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="G35" s="123"/>
+      <c r="G35" s="145"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="133"/>
-      <c r="C36" s="158"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="64"/>
       <c r="E36" s="56" t="s">
         <v>262</v>
@@ -5772,29 +6875,29 @@
       <c r="F36" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G36" s="123"/>
+      <c r="G36" s="145"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="133"/>
-      <c r="C37" s="158"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="180"/>
       <c r="D37" s="64"/>
       <c r="E37" s="56" t="s">
         <v>263</v>
       </c>
-      <c r="F37" s="114" t="s">
+      <c r="F37" s="136" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="123"/>
+      <c r="G37" s="145"/>
     </row>
     <row r="38" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B38" s="140"/>
-      <c r="C38" s="148"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="58"/>
       <c r="E38" s="56" t="s">
         <v>264</v>
       </c>
-      <c r="F38" s="109"/>
-      <c r="G38" s="123"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="145"/>
     </row>
     <row r="39" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A39" s="8"/>
@@ -5808,43 +6911,43 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="44.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="146">
+      <c r="A40" s="168">
         <v>8</v>
       </c>
-      <c r="B40" s="153" t="s">
+      <c r="B40" s="175" t="s">
         <v>273</v>
       </c>
-      <c r="C40" s="146" t="s">
+      <c r="C40" s="168" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="E40" s="106" t="s">
+      <c r="E40" s="128" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="108" t="s">
+      <c r="F40" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="110" t="s">
+      <c r="G40" s="132" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="158"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="158"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="180"/>
       <c r="D41" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="E41" s="107"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="107"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="129"/>
     </row>
     <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="158"/>
-      <c r="B42" s="155"/>
-      <c r="C42" s="158"/>
+      <c r="A42" s="180"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="180"/>
       <c r="D42" s="58"/>
       <c r="E42" s="60" t="s">
         <v>274</v>
@@ -5852,31 +6955,31 @@
       <c r="F42" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="129"/>
     </row>
     <row r="43" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="158"/>
-      <c r="B43" s="155"/>
-      <c r="C43" s="158"/>
+      <c r="A43" s="180"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="180"/>
       <c r="D43" s="58"/>
       <c r="E43" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="109" t="s">
+      <c r="F43" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="G43" s="107"/>
+      <c r="G43" s="129"/>
     </row>
     <row r="44" spans="1:9" ht="21.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="148"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="148"/>
+      <c r="A44" s="170"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="58"/>
       <c r="E44" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="F44" s="109"/>
-      <c r="G44" s="107"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="129"/>
     </row>
     <row r="45" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="8"/>
@@ -5924,38 +7027,38 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="43.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="146">
+      <c r="A48" s="168">
         <v>10</v>
       </c>
-      <c r="B48" s="106" t="s">
+      <c r="B48" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="146" t="s">
+      <c r="C48" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="106" t="s">
+      <c r="D48" s="128" t="s">
         <v>182</v>
       </c>
       <c r="E48" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F48" s="106" t="s">
+      <c r="F48" s="128" t="s">
         <v>279</v>
       </c>
-      <c r="G48" s="153" t="s">
+      <c r="G48" s="175" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="147"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="107"/>
+      <c r="A49" s="169"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="129"/>
       <c r="E49" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="F49" s="107"/>
-      <c r="G49" s="147"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="169"/>
     </row>
     <row r="50" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A50" s="8"/>
@@ -5969,38 +7072,38 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="43.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="146">
+      <c r="A51" s="168">
         <v>11</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="146" t="s">
+      <c r="C51" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="106" t="s">
+      <c r="D51" s="128" t="s">
         <v>182</v>
       </c>
       <c r="E51" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F51" s="106" t="s">
+      <c r="F51" s="128" t="s">
         <v>230</v>
       </c>
-      <c r="G51" s="110" t="s">
+      <c r="G51" s="132" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="147"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="107"/>
+      <c r="A52" s="169"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="129"/>
       <c r="E52" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
     </row>
     <row r="53" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="8"/>
@@ -6014,36 +7117,36 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="146">
+      <c r="A54" s="168">
         <v>12</v>
       </c>
-      <c r="B54" s="153" t="s">
+      <c r="B54" s="175" t="s">
         <v>306</v>
       </c>
-      <c r="C54" s="146" t="s">
+      <c r="C54" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="153" t="s">
+      <c r="D54" s="175" t="s">
         <v>258</v>
       </c>
-      <c r="E54" s="110" t="s">
+      <c r="E54" s="132" t="s">
         <v>305</v>
       </c>
-      <c r="F54" s="108" t="s">
+      <c r="F54" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="132" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A55" s="147"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="125"/>
+      <c r="A55" s="169"/>
+      <c r="B55" s="169"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="147"/>
     </row>
     <row r="56" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A56" s="8"/>
@@ -6091,36 +7194,36 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="154">
+      <c r="A59" s="176">
         <v>14</v>
       </c>
-      <c r="B59" s="110" t="s">
+      <c r="B59" s="132" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="146" t="s">
+      <c r="C59" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D59" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="E59" s="106" t="s">
+      <c r="E59" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="108" t="s">
+      <c r="F59" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="132" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="104"/>
-      <c r="B60" s="107"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="107"/>
-      <c r="E60" s="107"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="125"/>
+      <c r="A60" s="126"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="169"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="147"/>
     </row>
     <row r="61" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A61" s="8"/>
@@ -6205,17 +7308,17 @@
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="G20:G24"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="F23:F24"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -6247,12 +7350,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0E198D-4E4C-4997-945C-0D512942E328}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6269,17 +7372,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="58" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="178" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
       <c r="J1" s="62"/>
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
@@ -6305,10 +7408,10 @@
       <c r="D2" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="141"/>
+      <c r="F2" s="163"/>
       <c r="G2" s="44" t="s">
         <v>254</v>
       </c>
@@ -6335,16 +7438,16 @@
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:20" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="131">
+      <c r="A4" s="153">
         <v>1</v>
       </c>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="166" t="s">
         <v>88</v>
       </c>
       <c r="E4" s="81" t="s">
@@ -6353,61 +7456,61 @@
       <c r="F4" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="166" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="132"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="164"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="190"/>
       <c r="E5" s="81" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="164"/>
+      <c r="G5" s="190"/>
     </row>
     <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="132"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="164"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="190"/>
       <c r="E6" s="82" t="s">
         <v>84</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="164"/>
+      <c r="G6" s="190"/>
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="132"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="164"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="190"/>
       <c r="E7" s="81" t="s">
         <v>222</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="164"/>
+      <c r="G7" s="190"/>
     </row>
     <row r="8" spans="1:20" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="167"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="164"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="190"/>
       <c r="E8" s="81" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="164"/>
+      <c r="G8" s="190"/>
     </row>
     <row r="9" spans="1:20" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="83"/>
@@ -6421,16 +7524,16 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:20" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="131">
+      <c r="A10" s="153">
         <v>2</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="166" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="87" t="s">
@@ -6439,61 +7542,61 @@
       <c r="F10" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="166" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="132"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="164"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="191"/>
+      <c r="D11" s="190"/>
       <c r="E11" s="87" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="164"/>
+      <c r="G11" s="190"/>
     </row>
     <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="132"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="164"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="190"/>
       <c r="E12" s="82" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="164"/>
+      <c r="G12" s="190"/>
     </row>
     <row r="13" spans="1:20" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="132"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="164"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="87" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="164"/>
+      <c r="G13" s="190"/>
     </row>
     <row r="14" spans="1:20" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="132"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="164"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="191"/>
+      <c r="D14" s="190"/>
       <c r="E14" s="87" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="164"/>
+      <c r="G14" s="190"/>
     </row>
     <row r="15" spans="1:20" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="83"/>
@@ -6507,63 +7610,63 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:20" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="164">
+      <c r="A16" s="190">
         <v>3</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="189" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="164" t="s">
+      <c r="D16" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="184" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="188" t="s">
         <v>282</v>
       </c>
-      <c r="G16" s="164" t="s">
+      <c r="G16" s="190" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="164"/>
-      <c r="B17" s="164"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="164"/>
+      <c r="A17" s="190"/>
+      <c r="B17" s="190"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="190"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="164"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="164"/>
+      <c r="A18" s="190"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="190"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="164"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="164"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="190"/>
     </row>
     <row r="20" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="164"/>
-      <c r="B20" s="164"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="164"/>
+      <c r="A20" s="190"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="193"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="190"/>
     </row>
     <row r="21" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="83"/>
@@ -6577,13 +7680,13 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="31.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="169">
+      <c r="A22" s="188">
         <v>4</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="188" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="153" t="s">
         <v>151</v>
       </c>
       <c r="D22" s="90" t="s">
@@ -6595,14 +7698,14 @@
       <c r="F22" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="G22" s="169" t="s">
+      <c r="G22" s="188" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="165"/>
-      <c r="B23" s="165"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="191"/>
       <c r="D23" s="82" t="s">
         <v>292</v>
       </c>
@@ -6612,12 +7715,12 @@
       <c r="F23" s="88" t="s">
         <v>289</v>
       </c>
-      <c r="G23" s="171"/>
+      <c r="G23" s="192"/>
     </row>
     <row r="24" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="165"/>
-      <c r="B24" s="165"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="191"/>
       <c r="D24" s="92"/>
       <c r="E24" s="87" t="s">
         <v>286</v>
@@ -6625,7 +7728,7 @@
       <c r="F24" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="G24" s="171"/>
+      <c r="G24" s="192"/>
     </row>
     <row r="25" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="83"/>
@@ -6673,16 +7776,16 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="57.9" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="169">
+      <c r="A28" s="188">
         <v>6</v>
       </c>
-      <c r="B28" s="169" t="s">
+      <c r="B28" s="188" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="172" t="s">
+      <c r="C28" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="169" t="s">
+      <c r="D28" s="188" t="s">
         <v>224</v>
       </c>
       <c r="E28" s="81" t="s">
@@ -6696,10 +7799,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="165"/>
-      <c r="B29" s="165"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="165"/>
+      <c r="A29" s="189"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="189"/>
       <c r="E29" s="87" t="s">
         <v>227</v>
       </c>
@@ -6709,10 +7812,10 @@
       <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="165"/>
-      <c r="B30" s="165"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="165"/>
+      <c r="A30" s="189"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="189"/>
       <c r="E30" s="88" t="s">
         <v>229</v>
       </c>
@@ -6733,16 +7836,16 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="31.5" thickTop="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="131">
+      <c r="A32" s="153">
         <v>7</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="166" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="144" t="s">
+      <c r="D32" s="166" t="s">
         <v>112</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -6751,61 +7854,61 @@
       <c r="F32" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="142" t="s">
+      <c r="G32" s="164" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="46.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
       <c r="E33" s="24" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="143"/>
+      <c r="G33" s="165"/>
     </row>
     <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.6">
-      <c r="A34" s="132"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="132"/>
-      <c r="D34" s="132"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
       <c r="E34" s="64" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="143"/>
+      <c r="G34" s="165"/>
     </row>
     <row r="35" spans="1:9" ht="31.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
       <c r="E35" s="24" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="143"/>
+      <c r="G35" s="165"/>
     </row>
     <row r="36" spans="1:9" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
       <c r="E36" s="24" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="G36" s="143"/>
+      <c r="G36" s="165"/>
     </row>
     <row r="37" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="83"/>
@@ -6819,16 +7922,16 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="29.1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="131">
+      <c r="A38" s="153">
         <v>8</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="166" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="169" t="s">
+      <c r="C38" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="144" t="s">
+      <c r="D38" s="166" t="s">
         <v>296</v>
       </c>
       <c r="E38" s="81" t="s">
@@ -6837,61 +7940,61 @@
       <c r="F38" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="142" t="s">
+      <c r="G38" s="164" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="132"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="164"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="190"/>
       <c r="E39" s="81" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="143"/>
+      <c r="G39" s="165"/>
     </row>
     <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="132"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="164"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="189"/>
+      <c r="D40" s="190"/>
       <c r="E40" s="82" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="143"/>
+      <c r="G40" s="165"/>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="132"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="164"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="190"/>
       <c r="E41" s="81" t="s">
         <v>222</v>
       </c>
       <c r="F41" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="143"/>
+      <c r="G41" s="165"/>
     </row>
     <row r="42" spans="1:9" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="167"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="164"/>
+      <c r="A42" s="186"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="190"/>
       <c r="E42" s="81" t="s">
         <v>297</v>
       </c>
       <c r="F42" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="G42" s="143"/>
+      <c r="G42" s="165"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E43" s="81" t="s">
@@ -6913,38 +8016,38 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="29.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="162">
+      <c r="A45" s="182">
         <v>9</v>
       </c>
-      <c r="B45" s="162" t="s">
+      <c r="B45" s="182" t="s">
         <v>301</v>
       </c>
-      <c r="C45" s="162" t="s">
+      <c r="C45" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="162" t="s">
+      <c r="D45" s="182" t="s">
         <v>304</v>
       </c>
       <c r="E45" s="87" t="s">
         <v>302</v>
       </c>
-      <c r="F45" s="162" t="s">
+      <c r="F45" s="182" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="162" t="s">
+      <c r="G45" s="182" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="163"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="102" t="s">
         <v>303</v>
       </c>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
     </row>
     <row r="47" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A47" s="83"/>
@@ -6958,65 +8061,65 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="164">
+      <c r="A48" s="190">
         <v>10</v>
       </c>
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="190" t="s">
         <v>315</v>
       </c>
-      <c r="C48" s="165" t="s">
+      <c r="C48" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="164" t="s">
+      <c r="D48" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="160" t="s">
+      <c r="E48" s="184" t="s">
         <v>313</v>
       </c>
       <c r="F48" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="G48" s="142" t="s">
+      <c r="G48" s="164" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="164"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="161"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="190"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="185"/>
       <c r="F49" s="89"/>
-      <c r="G49" s="143"/>
+      <c r="G49" s="165"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="164"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="166"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="161"/>
+      <c r="A50" s="190"/>
+      <c r="B50" s="190"/>
+      <c r="C50" s="193"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="185"/>
       <c r="F50" s="89"/>
-      <c r="G50" s="143"/>
+      <c r="G50" s="165"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="164"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="161"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="190"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="185"/>
       <c r="F51" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="G51" s="143"/>
+      <c r="G51" s="165"/>
     </row>
     <row r="52" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="164"/>
-      <c r="B52" s="164"/>
-      <c r="C52" s="166"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="161"/>
+      <c r="A52" s="190"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="193"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="185"/>
       <c r="F52" s="89"/>
-      <c r="G52" s="143"/>
+      <c r="G52" s="165"/>
     </row>
     <row r="53" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A53" s="83"/>
@@ -7030,16 +8133,16 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="111">
+      <c r="A54" s="133">
         <v>11</v>
       </c>
-      <c r="B54" s="111" t="s">
+      <c r="B54" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="C54" s="126" t="s">
+      <c r="C54" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="132" t="s">
         <v>320</v>
       </c>
       <c r="E54" s="70" t="s">
@@ -7048,49 +8151,49 @@
       <c r="F54" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="G54" s="142" t="s">
+      <c r="G54" s="164" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="33.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="113"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="113"/>
+      <c r="A55" s="135"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="135"/>
       <c r="E55" s="71" t="s">
         <v>317</v>
       </c>
       <c r="F55" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="G55" s="143"/>
+      <c r="G55" s="165"/>
     </row>
     <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="113"/>
+      <c r="A56" s="135"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="135"/>
       <c r="E56" s="71"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="143"/>
+      <c r="G56" s="165"/>
     </row>
     <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="113"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="113"/>
+      <c r="A57" s="135"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="135"/>
       <c r="E57" s="24"/>
       <c r="F57" s="69"/>
-      <c r="G57" s="143"/>
+      <c r="G57" s="165"/>
     </row>
     <row r="58" spans="1:9" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A58" s="113"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="113"/>
+      <c r="A58" s="135"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="135"/>
       <c r="E58" s="24"/>
       <c r="F58" s="69"/>
-      <c r="G58" s="143"/>
+      <c r="G58" s="165"/>
     </row>
     <row r="59" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A59" s="83"/>
@@ -7104,16 +8207,16 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="108">
+      <c r="A60" s="130">
         <v>12</v>
       </c>
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="C60" s="108" t="s">
+      <c r="C60" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="108" t="s">
+      <c r="D60" s="130" t="s">
         <v>322</v>
       </c>
       <c r="E60" s="97" t="s">
@@ -7122,31 +8225,31 @@
       <c r="F60" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="G60" s="110" t="s">
+      <c r="G60" s="132" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="174"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="174"/>
-      <c r="E61" s="123" t="s">
+      <c r="A61" s="196"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="196"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="145" t="s">
         <v>325</v>
       </c>
       <c r="F61" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="123"/>
+      <c r="G61" s="145"/>
     </row>
     <row r="62" spans="1:9" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A62" s="174"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="174"/>
-      <c r="E62" s="123"/>
+      <c r="A62" s="196"/>
+      <c r="B62" s="196"/>
+      <c r="C62" s="196"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="145"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="123"/>
+      <c r="G62" s="145"/>
     </row>
     <row r="63" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A63" s="83"/>
@@ -7178,7 +8281,7 @@
       <c r="F64" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="G64" s="175" t="s">
+      <c r="G64" s="105" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7212,7 +8315,7 @@
       <c r="F66" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="G66" s="175" t="s">
+      <c r="G66" s="105" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7246,7 +8349,7 @@
       <c r="F68" s="99" t="s">
         <v>338</v>
       </c>
-      <c r="G68" s="175" t="s">
+      <c r="G68" s="105" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7295,7 +8398,41 @@
       <c r="H71" s="12"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" spans="1:9" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72" s="109" t="s">
+        <v>359</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>360</v>
+      </c>
+      <c r="E72" s="109" t="s">
+        <v>361</v>
+      </c>
+      <c r="F72" s="109" t="s">
+        <v>362</v>
+      </c>
+      <c r="G72" s="109" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A73" s="83"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="84"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="60">
     <mergeCell ref="D60:D62"/>
@@ -7308,6 +8445,17 @@
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="G32:G36"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D45:D46"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="B28:B30"/>
@@ -7336,17 +8484,6 @@
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="G4:G8"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D45:D46"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:C46"/>
@@ -7362,4 +8499,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296D2699-40FB-492C-AA6F-7E35AFEAE83E}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="7.62890625" customWidth="1"/>
+    <col min="2" max="2" width="30.3671875" customWidth="1"/>
+    <col min="3" max="3" width="14.9453125" customWidth="1"/>
+    <col min="4" max="4" width="26.47265625" customWidth="1"/>
+    <col min="5" max="5" width="26.41796875" customWidth="1"/>
+    <col min="6" max="6" width="27.9453125" customWidth="1"/>
+    <col min="7" max="7" width="25.26171875" customWidth="1"/>
+    <col min="8" max="8" width="22.20703125" customWidth="1"/>
+    <col min="9" max="9" width="14.68359375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="197" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A2" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="163"/>
+      <c r="G2" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.7" thickBot="1" x14ac:dyDescent="0.8">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="198" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="169"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="103" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="147" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="E6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="147"/>
+    </row>
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="107">
+        <v>2</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="109" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="109" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="107"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="119"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="119"/>
+      <c r="G12" s="119"/>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="119"/>
+      <c r="G14" s="119"/>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>